--- a/BackTest/2019-11-02 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-02 BackTest LOOM.xlsx
@@ -456,12 +456,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>27.5</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,16 +492,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="K3" t="n">
         <v>27.5</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -574,14 +566,12 @@
         <v>27.21666666666665</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>27.5</v>
       </c>
@@ -1068,14 +1058,12 @@
         <v>27.19833333333331</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>27.5</v>
       </c>
@@ -2303,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
@@ -2311,11 +2299,11 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1.013181818181818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2344,11 +2332,17 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2376,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2414,13 +2414,19 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0.9986363636363637</v>
       </c>
     </row>
     <row r="51">

--- a/BackTest/2019-11-02 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-02 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C2" t="n">
         <v>27.5</v>
@@ -442,16 +442,16 @@
         <v>27.5</v>
       </c>
       <c r="E2" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="F2" t="n">
-        <v>63321.3636</v>
+        <v>7318.5127</v>
       </c>
       <c r="G2" t="n">
-        <v>27.21666666666664</v>
+        <v>27.20833333333331</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,35 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="F3" t="n">
-        <v>3227.905</v>
+        <v>63321.3636</v>
       </c>
       <c r="G3" t="n">
-        <v>27.21499999999998</v>
+        <v>27.21666666666664</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>27.5</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -507,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>3227.905</v>
       </c>
       <c r="G4" t="n">
         <v>27.21499999999998</v>
@@ -531,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -548,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C5" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D5" t="n">
         <v>27.4</v>
       </c>
       <c r="E5" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G5" t="n">
-        <v>27.21666666666665</v>
+        <v>27.21499999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -572,14 +562,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -589,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C6" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D6" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E6" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F6" t="n">
-        <v>25713.3522</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>27.21666666666665</v>
@@ -613,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,10 +620,10 @@
         <v>27.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1759.1752</v>
+        <v>25713.3522</v>
       </c>
       <c r="G7" t="n">
-        <v>27.21999999999998</v>
+        <v>27.21666666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -683,7 +655,7 @@
         <v>27.3</v>
       </c>
       <c r="F8" t="n">
-        <v>643.1135</v>
+        <v>1759.1752</v>
       </c>
       <c r="G8" t="n">
         <v>27.21999999999998</v>
@@ -695,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -712,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F9" t="n">
-        <v>43210.8471</v>
+        <v>643.1135</v>
       </c>
       <c r="G9" t="n">
-        <v>27.22333333333331</v>
+        <v>27.21999999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -736,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -753,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C10" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D10" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E10" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F10" t="n">
-        <v>24593.1517</v>
+        <v>43210.8471</v>
       </c>
       <c r="G10" t="n">
-        <v>27.21999999999998</v>
+        <v>27.22333333333331</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -777,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -794,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D11" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F11" t="n">
-        <v>1835.9674</v>
+        <v>24593.1517</v>
       </c>
       <c r="G11" t="n">
-        <v>27.21833333333332</v>
+        <v>27.21999999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -818,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -835,38 +783,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1835.9674</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27.21833333333332</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>27.1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="K12" t="n">
         <v>27.1</v>
       </c>
-      <c r="D12" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15004.4183</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27.21333333333331</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -876,19 +822,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C13" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D13" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E13" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F13" t="n">
-        <v>380</v>
+        <v>15004.4183</v>
       </c>
       <c r="G13" t="n">
         <v>27.21333333333331</v>
@@ -901,11 +847,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -917,36 +863,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>380</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27.21333333333331</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>27.1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="K14" t="n">
         <v>27.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>18885.9131</v>
-      </c>
-      <c r="G14" t="n">
-        <v>27.20666666666665</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>27.5</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -970,7 +918,7 @@
         <v>27.1</v>
       </c>
       <c r="F15" t="n">
-        <v>17524</v>
+        <v>18885.9131</v>
       </c>
       <c r="G15" t="n">
         <v>27.20666666666665</v>
@@ -982,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -999,22 +941,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D16" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E16" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F16" t="n">
-        <v>35100</v>
+        <v>17524</v>
       </c>
       <c r="G16" t="n">
-        <v>27.20166666666665</v>
+        <v>27.20666666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1023,14 +965,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1040,22 +976,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D17" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E17" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F17" t="n">
-        <v>7900</v>
+        <v>35100</v>
       </c>
       <c r="G17" t="n">
-        <v>27.19833333333331</v>
+        <v>27.20166666666665</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1064,14 +1000,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1093,10 +1023,10 @@
         <v>27.3</v>
       </c>
       <c r="F18" t="n">
-        <v>2900</v>
+        <v>7900</v>
       </c>
       <c r="G18" t="n">
-        <v>27.19999999999998</v>
+        <v>27.19833333333331</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1105,14 +1035,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1125,19 +1049,19 @@
         <v>27.3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D19" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E19" t="n">
         <v>27.3</v>
       </c>
       <c r="F19" t="n">
-        <v>87266</v>
+        <v>2900</v>
       </c>
       <c r="G19" t="n">
-        <v>27.20333333333331</v>
+        <v>27.19999999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1146,14 +1070,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1163,22 +1081,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C20" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D20" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E20" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F20" t="n">
-        <v>6600</v>
+        <v>87266</v>
       </c>
       <c r="G20" t="n">
-        <v>27.20499999999998</v>
+        <v>27.20333333333331</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1187,14 +1105,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1204,19 +1116,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C21" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D21" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E21" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F21" t="n">
-        <v>8180</v>
+        <v>6600</v>
       </c>
       <c r="G21" t="n">
         <v>27.20499999999998</v>
@@ -1228,14 +1140,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1245,22 +1151,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F22" t="n">
-        <v>1898.1989</v>
+        <v>8180</v>
       </c>
       <c r="G22" t="n">
-        <v>27.20333333333332</v>
+        <v>27.20499999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1269,14 +1175,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1289,19 +1189,19 @@
         <v>27.2</v>
       </c>
       <c r="C23" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D23" t="n">
         <v>27.2</v>
       </c>
       <c r="E23" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F23" t="n">
-        <v>35908.672</v>
+        <v>1898.1989</v>
       </c>
       <c r="G23" t="n">
-        <v>27.19999999999998</v>
+        <v>27.20333333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1310,14 +1210,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1327,19 +1221,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C24" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D24" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E24" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>35908.672</v>
       </c>
       <c r="G24" t="n">
         <v>27.19999999999998</v>
@@ -1351,14 +1245,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1380,10 +1268,10 @@
         <v>27.3</v>
       </c>
       <c r="F25" t="n">
-        <v>23952.6623</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>27.20499999999998</v>
+        <v>27.19999999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1392,14 +1280,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1409,19 +1291,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C26" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D26" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E26" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>23952.6623</v>
       </c>
       <c r="G26" t="n">
         <v>27.20499999999998</v>
@@ -1433,14 +1315,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1462,7 +1338,7 @@
         <v>27.4</v>
       </c>
       <c r="F27" t="n">
-        <v>19373.6496</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
         <v>27.20499999999998</v>
@@ -1474,14 +1350,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1503,10 +1373,10 @@
         <v>27.4</v>
       </c>
       <c r="F28" t="n">
-        <v>2000</v>
+        <v>19373.6496</v>
       </c>
       <c r="G28" t="n">
-        <v>27.21166666666665</v>
+        <v>27.20499999999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1515,14 +1385,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1544,10 +1408,10 @@
         <v>27.4</v>
       </c>
       <c r="F29" t="n">
-        <v>6616.3776</v>
+        <v>2000</v>
       </c>
       <c r="G29" t="n">
-        <v>27.21833333333332</v>
+        <v>27.21166666666665</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1556,14 +1420,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1573,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C30" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D30" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E30" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F30" t="n">
-        <v>19293.2642</v>
+        <v>6616.3776</v>
       </c>
       <c r="G30" t="n">
-        <v>27.21999999999998</v>
+        <v>27.21833333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1597,14 +1455,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1614,19 +1466,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C31" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D31" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E31" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F31" t="n">
-        <v>21725.1739</v>
+        <v>19293.2642</v>
       </c>
       <c r="G31" t="n">
         <v>27.21999999999998</v>
@@ -1638,14 +1490,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1667,7 +1513,7 @@
         <v>27.4</v>
       </c>
       <c r="F32" t="n">
-        <v>6089.1131</v>
+        <v>21725.1739</v>
       </c>
       <c r="G32" t="n">
         <v>27.21999999999998</v>
@@ -1679,14 +1525,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1696,22 +1536,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C33" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D33" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E33" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F33" t="n">
-        <v>10751</v>
+        <v>6089.1131</v>
       </c>
       <c r="G33" t="n">
-        <v>27.21833333333331</v>
+        <v>27.21999999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1720,14 +1560,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1737,19 +1571,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C34" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D34" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E34" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F34" t="n">
-        <v>22600</v>
+        <v>10751</v>
       </c>
       <c r="G34" t="n">
         <v>27.21833333333331</v>
@@ -1761,14 +1595,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1778,22 +1606,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C35" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D35" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E35" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F35" t="n">
-        <v>35.7568</v>
+        <v>22600</v>
       </c>
       <c r="G35" t="n">
-        <v>27.21666666666664</v>
+        <v>27.21833333333331</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1802,14 +1630,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1819,19 +1641,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C36" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D36" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E36" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F36" t="n">
-        <v>9588</v>
+        <v>35.7568</v>
       </c>
       <c r="G36" t="n">
         <v>27.21666666666664</v>
@@ -1843,14 +1665,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1872,7 +1688,7 @@
         <v>27.5</v>
       </c>
       <c r="F37" t="n">
-        <v>83167</v>
+        <v>9588</v>
       </c>
       <c r="G37" t="n">
         <v>27.21666666666664</v>
@@ -1884,14 +1700,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1904,19 +1714,19 @@
         <v>27.5</v>
       </c>
       <c r="C38" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D38" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E38" t="n">
         <v>27.5</v>
       </c>
       <c r="F38" t="n">
-        <v>17800</v>
+        <v>83167</v>
       </c>
       <c r="G38" t="n">
-        <v>27.21999999999997</v>
+        <v>27.21666666666664</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1925,14 +1735,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1942,7 +1746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C39" t="n">
         <v>27.6</v>
@@ -1951,13 +1755,13 @@
         <v>27.6</v>
       </c>
       <c r="E39" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F39" t="n">
-        <v>5400</v>
+        <v>17800</v>
       </c>
       <c r="G39" t="n">
-        <v>27.22499999999997</v>
+        <v>27.21999999999997</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1966,14 +1770,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1995,10 +1793,10 @@
         <v>27.6</v>
       </c>
       <c r="F40" t="n">
-        <v>22.7009</v>
+        <v>5400</v>
       </c>
       <c r="G40" t="n">
-        <v>27.23333333333331</v>
+        <v>27.22499999999997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2007,14 +1805,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2024,22 +1816,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C41" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D41" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E41" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>22.7009</v>
       </c>
       <c r="G41" t="n">
-        <v>27.24333333333331</v>
+        <v>27.23333333333331</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2048,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2065,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C42" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D42" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E42" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F42" t="n">
-        <v>25065.2158</v>
+        <v>500</v>
       </c>
       <c r="G42" t="n">
-        <v>27.25499999999998</v>
+        <v>27.24333333333331</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2089,14 +1875,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2106,22 +1886,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C43" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D43" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E43" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F43" t="n">
-        <v>588.7641</v>
+        <v>25065.2158</v>
       </c>
       <c r="G43" t="n">
-        <v>27.26333333333331</v>
+        <v>27.25499999999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2130,14 +1910,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2147,22 +1921,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C44" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D44" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E44" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F44" t="n">
-        <v>2059</v>
+        <v>588.7641</v>
       </c>
       <c r="G44" t="n">
-        <v>27.27333333333331</v>
+        <v>27.26333333333331</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2171,14 +1945,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2200,10 +1968,10 @@
         <v>27.8</v>
       </c>
       <c r="F45" t="n">
-        <v>63400</v>
+        <v>2059</v>
       </c>
       <c r="G45" t="n">
-        <v>27.28333333333331</v>
+        <v>27.27333333333331</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2212,14 +1980,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2229,38 +1991,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C46" t="n">
         <v>27.8</v>
       </c>
       <c r="D46" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E46" t="n">
         <v>27.8</v>
       </c>
       <c r="F46" t="n">
-        <v>32659.75</v>
+        <v>63400</v>
       </c>
       <c r="G46" t="n">
-        <v>27.29499999999997</v>
+        <v>27.28333333333331</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2270,22 +2026,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="D47" t="n">
         <v>28</v>
       </c>
       <c r="E47" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="F47" t="n">
-        <v>1409.8214</v>
+        <v>32659.75</v>
       </c>
       <c r="G47" t="n">
-        <v>27.31166666666664</v>
+        <v>27.29499999999997</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2294,14 +2050,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2311,7 +2061,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C48" t="n">
         <v>28</v>
@@ -2320,29 +2070,23 @@
         <v>28</v>
       </c>
       <c r="E48" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="F48" t="n">
-        <v>74609.68610000001</v>
+        <v>1409.8214</v>
       </c>
       <c r="G48" t="n">
-        <v>27.32666666666664</v>
+        <v>27.31166666666664</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2355,35 +2099,29 @@
         <v>27.9</v>
       </c>
       <c r="C49" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E49" t="n">
         <v>27.8</v>
       </c>
       <c r="F49" t="n">
-        <v>1040</v>
+        <v>74609.68610000001</v>
       </c>
       <c r="G49" t="n">
-        <v>27.33999999999997</v>
+        <v>27.32666666666664</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2131,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C50" t="n">
         <v>27.8</v>
       </c>
-      <c r="C50" t="n">
-        <v>27.6</v>
-      </c>
       <c r="D50" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E50" t="n">
         <v>27.8</v>
       </c>
-      <c r="E50" t="n">
-        <v>27.6</v>
-      </c>
       <c r="F50" t="n">
-        <v>3800.1499</v>
+        <v>1040</v>
       </c>
       <c r="G50" t="n">
-        <v>27.34666666666664</v>
+        <v>27.33999999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2417,16 +2155,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>0.9986363636363637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2434,22 +2166,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C51" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D51" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E51" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>3800.1499</v>
       </c>
       <c r="G51" t="n">
-        <v>27.35833333333331</v>
+        <v>27.34666666666664</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2469,22 +2201,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C52" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D52" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E52" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F52" t="n">
-        <v>6400</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>27.36666666666664</v>
+        <v>27.35833333333331</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2516,10 +2248,10 @@
         <v>27.5</v>
       </c>
       <c r="F53" t="n">
-        <v>8600</v>
+        <v>6400</v>
       </c>
       <c r="G53" t="n">
-        <v>27.37499999999998</v>
+        <v>27.36666666666664</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2551,10 +2283,10 @@
         <v>27.5</v>
       </c>
       <c r="F54" t="n">
-        <v>225488.7964</v>
+        <v>8600</v>
       </c>
       <c r="G54" t="n">
-        <v>27.38499999999997</v>
+        <v>27.37499999999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2574,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C55" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D55" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E55" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F55" t="n">
-        <v>8691.758</v>
+        <v>225488.7964</v>
       </c>
       <c r="G55" t="n">
-        <v>27.39333333333331</v>
+        <v>27.38499999999997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2609,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C56" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D56" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E56" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>8691.758</v>
       </c>
       <c r="G56" t="n">
-        <v>27.4033333333333</v>
+        <v>27.39333333333331</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2644,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C57" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D57" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E57" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F57" t="n">
-        <v>1406.2968</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>27.41166666666664</v>
+        <v>27.4033333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2679,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C58" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D58" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E58" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F58" t="n">
-        <v>23823.5192</v>
+        <v>1406.2968</v>
       </c>
       <c r="G58" t="n">
-        <v>27.42166666666663</v>
+        <v>27.41166666666664</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2714,22 +2446,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C59" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D59" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E59" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F59" t="n">
-        <v>3865.2932</v>
+        <v>23823.5192</v>
       </c>
       <c r="G59" t="n">
-        <v>27.42499999999997</v>
+        <v>27.42166666666663</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2761,10 +2493,10 @@
         <v>27.4</v>
       </c>
       <c r="F60" t="n">
-        <v>10661.3525</v>
+        <v>3865.2932</v>
       </c>
       <c r="G60" t="n">
-        <v>27.4283333333333</v>
+        <v>27.42499999999997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2784,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C61" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D61" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E61" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F61" t="n">
-        <v>118485.5596</v>
+        <v>10661.3525</v>
       </c>
       <c r="G61" t="n">
-        <v>27.42499999999997</v>
+        <v>27.4283333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2819,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C62" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D62" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E62" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F62" t="n">
-        <v>33571.3254</v>
+        <v>118485.5596</v>
       </c>
       <c r="G62" t="n">
-        <v>27.41999999999997</v>
+        <v>27.42499999999997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2857,19 +2589,19 @@
         <v>27.2</v>
       </c>
       <c r="C63" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D63" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E63" t="n">
         <v>27.2</v>
       </c>
       <c r="F63" t="n">
-        <v>17335.8794</v>
+        <v>33571.3254</v>
       </c>
       <c r="G63" t="n">
-        <v>27.42666666666664</v>
+        <v>27.41999999999997</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2889,7 +2621,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C64" t="n">
         <v>27.4</v>
@@ -2898,13 +2630,13 @@
         <v>27.4</v>
       </c>
       <c r="E64" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F64" t="n">
-        <v>2031.0653</v>
+        <v>17335.8794</v>
       </c>
       <c r="G64" t="n">
-        <v>27.43166666666664</v>
+        <v>27.42666666666664</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2924,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C65" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D65" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E65" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F65" t="n">
-        <v>27124.7375</v>
+        <v>2031.0653</v>
       </c>
       <c r="G65" t="n">
-        <v>27.42999999999997</v>
+        <v>27.43166666666664</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2971,7 +2703,7 @@
         <v>27.3</v>
       </c>
       <c r="F66" t="n">
-        <v>14084.2124</v>
+        <v>27124.7375</v>
       </c>
       <c r="G66" t="n">
         <v>27.42999999999997</v>
@@ -3006,7 +2738,7 @@
         <v>27.3</v>
       </c>
       <c r="F67" t="n">
-        <v>7000</v>
+        <v>14084.2124</v>
       </c>
       <c r="G67" t="n">
         <v>27.42999999999997</v>
@@ -3041,7 +2773,7 @@
         <v>27.3</v>
       </c>
       <c r="F68" t="n">
-        <v>12963.9999</v>
+        <v>7000</v>
       </c>
       <c r="G68" t="n">
         <v>27.42999999999997</v>
@@ -3076,19 +2808,23 @@
         <v>27.3</v>
       </c>
       <c r="F69" t="n">
-        <v>11582.2102</v>
+        <v>12963.9999</v>
       </c>
       <c r="G69" t="n">
-        <v>27.43166666666664</v>
+        <v>27.42999999999997</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>27.3</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
@@ -3111,10 +2847,10 @@
         <v>27.3</v>
       </c>
       <c r="F70" t="n">
-        <v>9604.2912</v>
+        <v>11582.2102</v>
       </c>
       <c r="G70" t="n">
-        <v>27.43499999999997</v>
+        <v>27.43166666666664</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3123,8 +2859,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3134,32 +2876,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C71" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D71" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E71" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F71" t="n">
-        <v>42933.1122</v>
+        <v>9604.2912</v>
       </c>
       <c r="G71" t="n">
-        <v>27.4333333333333</v>
+        <v>27.43499999999997</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K71" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3172,19 +2922,19 @@
         <v>27.2</v>
       </c>
       <c r="C72" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D72" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E72" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F72" t="n">
-        <v>2442.6187</v>
+        <v>42933.1122</v>
       </c>
       <c r="G72" t="n">
-        <v>27.43666666666664</v>
+        <v>27.4333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3204,31 +2954,35 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C73" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D73" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E73" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F73" t="n">
-        <v>19497</v>
+        <v>2442.6187</v>
       </c>
       <c r="G73" t="n">
-        <v>27.43833333333331</v>
+        <v>27.43666666666664</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>27.1</v>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
@@ -3239,32 +2993,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C74" t="n">
         <v>27.4</v>
       </c>
       <c r="D74" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E74" t="n">
         <v>27.4</v>
       </c>
       <c r="F74" t="n">
-        <v>7287.1636</v>
+        <v>19497</v>
       </c>
       <c r="G74" t="n">
-        <v>27.44333333333331</v>
+        <v>27.43833333333331</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3274,7 +3036,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C75" t="n">
         <v>27.4</v>
@@ -3286,10 +3048,10 @@
         <v>27.4</v>
       </c>
       <c r="F75" t="n">
-        <v>3964.7432</v>
+        <v>7287.1636</v>
       </c>
       <c r="G75" t="n">
-        <v>27.44833333333331</v>
+        <v>27.44333333333331</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3298,8 +3060,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3309,7 +3077,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C76" t="n">
         <v>27.4</v>
@@ -3321,10 +3089,10 @@
         <v>27.4</v>
       </c>
       <c r="F76" t="n">
-        <v>3376.8789</v>
+        <v>3964.7432</v>
       </c>
       <c r="G76" t="n">
-        <v>27.45166666666665</v>
+        <v>27.44833333333331</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3344,22 +3112,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C77" t="n">
         <v>27.4</v>
       </c>
       <c r="D77" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E77" t="n">
         <v>27.4</v>
       </c>
       <c r="F77" t="n">
-        <v>46587.0745</v>
+        <v>3376.8789</v>
       </c>
       <c r="G77" t="n">
-        <v>27.45333333333332</v>
+        <v>27.45166666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3391,10 +3159,10 @@
         <v>27.4</v>
       </c>
       <c r="F78" t="n">
-        <v>9375.844800000001</v>
+        <v>46587.0745</v>
       </c>
       <c r="G78" t="n">
-        <v>27.45499999999998</v>
+        <v>27.45333333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3426,7 +3194,7 @@
         <v>27.4</v>
       </c>
       <c r="F79" t="n">
-        <v>9936.7816</v>
+        <v>9375.844800000001</v>
       </c>
       <c r="G79" t="n">
         <v>27.45499999999998</v>
@@ -3461,10 +3229,10 @@
         <v>27.4</v>
       </c>
       <c r="F80" t="n">
-        <v>5259.1263</v>
+        <v>9936.7816</v>
       </c>
       <c r="G80" t="n">
-        <v>27.45833333333332</v>
+        <v>27.45499999999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3496,10 +3264,10 @@
         <v>27.4</v>
       </c>
       <c r="F81" t="n">
-        <v>10035.0976</v>
+        <v>5259.1263</v>
       </c>
       <c r="G81" t="n">
-        <v>27.45999999999999</v>
+        <v>27.45833333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3531,10 +3299,10 @@
         <v>27.4</v>
       </c>
       <c r="F82" t="n">
-        <v>78171.17110000001</v>
+        <v>10035.0976</v>
       </c>
       <c r="G82" t="n">
-        <v>27.46333333333332</v>
+        <v>27.45999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3566,10 +3334,10 @@
         <v>27.4</v>
       </c>
       <c r="F83" t="n">
-        <v>16818.7826</v>
+        <v>78171.17110000001</v>
       </c>
       <c r="G83" t="n">
-        <v>27.46833333333332</v>
+        <v>27.46333333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3601,10 +3369,10 @@
         <v>27.4</v>
       </c>
       <c r="F84" t="n">
-        <v>3778.4091</v>
+        <v>16818.7826</v>
       </c>
       <c r="G84" t="n">
-        <v>27.46999999999999</v>
+        <v>27.46833333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3624,22 +3392,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C85" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="D85" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E85" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>3778.4091</v>
       </c>
       <c r="G85" t="n">
-        <v>27.47666666666666</v>
+        <v>27.46999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3659,19 +3427,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C86" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D86" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E86" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F86" t="n">
-        <v>5929.1998</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
         <v>27.47666666666666</v>
@@ -3694,22 +3462,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C87" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D87" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E87" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F87" t="n">
-        <v>16904.4151</v>
+        <v>5929.1998</v>
       </c>
       <c r="G87" t="n">
-        <v>27.47499999999999</v>
+        <v>27.47666666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3741,10 +3509,10 @@
         <v>27.3</v>
       </c>
       <c r="F88" t="n">
-        <v>1301.1475</v>
+        <v>16904.4151</v>
       </c>
       <c r="G88" t="n">
-        <v>27.47333333333332</v>
+        <v>27.47499999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3776,10 +3544,10 @@
         <v>27.3</v>
       </c>
       <c r="F89" t="n">
-        <v>15718.7765</v>
+        <v>1301.1475</v>
       </c>
       <c r="G89" t="n">
-        <v>27.47166666666665</v>
+        <v>27.47333333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3811,10 +3579,10 @@
         <v>27.3</v>
       </c>
       <c r="F90" t="n">
-        <v>3755.7862</v>
+        <v>15718.7765</v>
       </c>
       <c r="G90" t="n">
-        <v>27.46833333333332</v>
+        <v>27.47166666666665</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3846,10 +3614,10 @@
         <v>27.3</v>
       </c>
       <c r="F91" t="n">
-        <v>682.5018</v>
+        <v>3755.7862</v>
       </c>
       <c r="G91" t="n">
-        <v>27.46666666666665</v>
+        <v>27.46833333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3881,10 +3649,10 @@
         <v>27.3</v>
       </c>
       <c r="F92" t="n">
-        <v>8474</v>
+        <v>682.5018</v>
       </c>
       <c r="G92" t="n">
-        <v>27.46499999999998</v>
+        <v>27.46666666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3907,19 +3675,19 @@
         <v>27.3</v>
       </c>
       <c r="C93" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D93" t="n">
         <v>27.3</v>
       </c>
       <c r="E93" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F93" t="n">
-        <v>3726.37</v>
+        <v>8474</v>
       </c>
       <c r="G93" t="n">
-        <v>27.46333333333332</v>
+        <v>27.46499999999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3942,19 +3710,19 @@
         <v>27.3</v>
       </c>
       <c r="C94" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D94" t="n">
         <v>27.3</v>
       </c>
       <c r="E94" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F94" t="n">
-        <v>8402.567300000001</v>
+        <v>3726.37</v>
       </c>
       <c r="G94" t="n">
-        <v>27.45999999999998</v>
+        <v>27.46333333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3986,7 +3754,7 @@
         <v>27.3</v>
       </c>
       <c r="F95" t="n">
-        <v>13503.9765</v>
+        <v>8402.567300000001</v>
       </c>
       <c r="G95" t="n">
         <v>27.45999999999998</v>
@@ -4021,10 +3789,10 @@
         <v>27.3</v>
       </c>
       <c r="F96" t="n">
-        <v>1532.9071</v>
+        <v>13503.9765</v>
       </c>
       <c r="G96" t="n">
-        <v>27.45666666666665</v>
+        <v>27.45999999999998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4044,22 +3812,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C97" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D97" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E97" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F97" t="n">
-        <v>14600</v>
+        <v>1532.9071</v>
       </c>
       <c r="G97" t="n">
-        <v>27.45166666666665</v>
+        <v>27.45666666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4079,22 +3847,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C98" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D98" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E98" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F98" t="n">
-        <v>1659</v>
+        <v>14600</v>
       </c>
       <c r="G98" t="n">
-        <v>27.44666666666665</v>
+        <v>27.45166666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4126,10 +3894,10 @@
         <v>27.3</v>
       </c>
       <c r="F99" t="n">
-        <v>5830.9069</v>
+        <v>1659</v>
       </c>
       <c r="G99" t="n">
-        <v>27.44166666666665</v>
+        <v>27.44666666666665</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4152,19 +3920,19 @@
         <v>27.3</v>
       </c>
       <c r="C100" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D100" t="n">
         <v>27.3</v>
       </c>
       <c r="E100" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F100" t="n">
-        <v>37632.139</v>
+        <v>5830.9069</v>
       </c>
       <c r="G100" t="n">
-        <v>27.43499999999999</v>
+        <v>27.44166666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4184,22 +3952,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C101" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E101" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F101" t="n">
-        <v>8769.0931</v>
+        <v>37632.139</v>
       </c>
       <c r="G101" t="n">
-        <v>27.42999999999999</v>
+        <v>27.43499999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4219,22 +3987,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C102" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D102" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E102" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>8769.0931</v>
       </c>
       <c r="G102" t="n">
-        <v>27.42666666666666</v>
+        <v>27.42999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4254,22 +4022,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C103" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D103" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E103" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F103" t="n">
-        <v>4903.6038</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>27.42166666666666</v>
+        <v>27.42666666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4289,22 +4057,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C104" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D104" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E104" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>4903.6038</v>
       </c>
       <c r="G104" t="n">
-        <v>27.41833333333332</v>
+        <v>27.42166666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4324,22 +4092,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="C105" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D105" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="E105" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="F105" t="n">
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>27.40833333333332</v>
+        <v>27.41833333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4359,22 +4127,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C106" t="n">
         <v>27.2</v>
       </c>
       <c r="D106" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E106" t="n">
         <v>27.2</v>
       </c>
       <c r="F106" t="n">
-        <v>15810</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>27.39833333333332</v>
+        <v>27.40833333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4394,10 +4162,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C107" t="n">
         <v>27.2</v>
-      </c>
-      <c r="C107" t="n">
-        <v>27.6</v>
       </c>
       <c r="D107" t="n">
         <v>27.6</v>
@@ -4406,10 +4174,10 @@
         <v>27.2</v>
       </c>
       <c r="F107" t="n">
-        <v>70</v>
+        <v>15810</v>
       </c>
       <c r="G107" t="n">
-        <v>27.39166666666666</v>
+        <v>27.39833333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4429,7 +4197,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C108" t="n">
         <v>27.6</v>
@@ -4438,13 +4206,13 @@
         <v>27.6</v>
       </c>
       <c r="E108" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="F108" t="n">
-        <v>2188.4025</v>
+        <v>70</v>
       </c>
       <c r="G108" t="n">
-        <v>27.38499999999999</v>
+        <v>27.39166666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4467,19 +4235,19 @@
         <v>27.6</v>
       </c>
       <c r="C109" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D109" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E109" t="n">
         <v>27.6</v>
       </c>
       <c r="F109" t="n">
-        <v>400</v>
+        <v>2188.4025</v>
       </c>
       <c r="G109" t="n">
-        <v>27.38333333333332</v>
+        <v>27.38499999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4499,7 +4267,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C110" t="n">
         <v>27.7</v>
@@ -4508,13 +4276,13 @@
         <v>27.7</v>
       </c>
       <c r="E110" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F110" t="n">
-        <v>1323.7978</v>
+        <v>400</v>
       </c>
       <c r="G110" t="n">
-        <v>27.38499999999999</v>
+        <v>27.38333333333332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4534,22 +4302,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C111" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D111" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E111" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>1323.7978</v>
       </c>
       <c r="G111" t="n">
-        <v>27.38166666666666</v>
+        <v>27.38499999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4569,22 +4337,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C112" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D112" t="n">
         <v>27.6</v>
       </c>
-      <c r="D112" t="n">
-        <v>27.7</v>
-      </c>
       <c r="E112" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F112" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G112" t="n">
-        <v>27.38333333333332</v>
+        <v>27.38166666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4604,22 +4372,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C113" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D113" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E113" t="n">
         <v>27.4</v>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G113" t="n">
-        <v>27.38166666666666</v>
+        <v>27.38333333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4639,22 +4407,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C114" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D114" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E114" t="n">
         <v>27.4</v>
       </c>
       <c r="F114" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G114" t="n">
-        <v>27.38333333333332</v>
+        <v>27.38166666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4677,7 +4445,7 @@
         <v>27.4</v>
       </c>
       <c r="C115" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D115" t="n">
         <v>27.6</v>
@@ -4686,7 +4454,7 @@
         <v>27.4</v>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G115" t="n">
         <v>27.38333333333332</v>
@@ -4709,7 +4477,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C116" t="n">
         <v>27.4</v>
@@ -4721,10 +4489,10 @@
         <v>27.4</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G116" t="n">
-        <v>27.38166666666666</v>
+        <v>27.38333333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4747,19 +4515,19 @@
         <v>27.6</v>
       </c>
       <c r="C117" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D117" t="n">
         <v>27.6</v>
       </c>
       <c r="E117" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F117" t="n">
-        <v>3587.5181</v>
+        <v>20</v>
       </c>
       <c r="G117" t="n">
-        <v>27.38499999999999</v>
+        <v>27.38166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4779,22 +4547,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C118" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D118" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E118" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>3587.5181</v>
       </c>
       <c r="G118" t="n">
-        <v>27.38333333333332</v>
+        <v>27.38499999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4814,19 +4582,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C119" t="n">
         <v>27.4</v>
       </c>
       <c r="D119" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E119" t="n">
         <v>27.4</v>
       </c>
       <c r="F119" t="n">
-        <v>39499.0397</v>
+        <v>20</v>
       </c>
       <c r="G119" t="n">
         <v>27.38333333333332</v>
@@ -4849,22 +4617,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C120" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D120" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E120" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>39499.0397</v>
       </c>
       <c r="G120" t="n">
-        <v>27.38499999999999</v>
+        <v>27.38333333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4884,22 +4652,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C121" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="D121" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="E121" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="F121" t="n">
-        <v>15300</v>
+        <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>27.39499999999999</v>
+        <v>27.38499999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4919,22 +4687,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C122" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D122" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E122" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>15300</v>
       </c>
       <c r="G122" t="n">
-        <v>27.40833333333332</v>
+        <v>27.39499999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4954,22 +4722,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C123" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D123" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E123" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F123" t="n">
         <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>27.41166666666665</v>
+        <v>27.40833333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4989,22 +4757,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C124" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D124" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E124" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G124" t="n">
-        <v>27.41333333333332</v>
+        <v>27.41166666666665</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5027,19 +4795,19 @@
         <v>27.5</v>
       </c>
       <c r="C125" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D125" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E125" t="n">
         <v>27.5</v>
       </c>
       <c r="F125" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>27.42499999999999</v>
+        <v>27.41333333333332</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5059,22 +4827,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C126" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D126" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E126" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G126" t="n">
-        <v>27.43333333333332</v>
+        <v>27.42499999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5094,22 +4862,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C127" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D127" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E127" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F127" t="n">
-        <v>95002.1182</v>
+        <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>27.44333333333332</v>
+        <v>27.43333333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5129,22 +4897,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C128" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D128" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="E128" t="n">
         <v>27.5</v>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>95002.1182</v>
       </c>
       <c r="G128" t="n">
-        <v>27.44833333333332</v>
+        <v>27.44333333333332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5164,22 +4932,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C129" t="n">
         <v>27.6</v>
       </c>
       <c r="D129" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E129" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F129" t="n">
         <v>20</v>
       </c>
       <c r="G129" t="n">
-        <v>27.45333333333332</v>
+        <v>27.44833333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5199,22 +4967,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C130" t="n">
         <v>27.6</v>
       </c>
-      <c r="C130" t="n">
-        <v>27.5</v>
-      </c>
       <c r="D130" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E130" t="n">
         <v>27.6</v>
       </c>
-      <c r="E130" t="n">
-        <v>27.5</v>
-      </c>
       <c r="F130" t="n">
-        <v>1960.7926</v>
+        <v>20</v>
       </c>
       <c r="G130" t="n">
-        <v>27.45666666666665</v>
+        <v>27.45333333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5234,22 +5002,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C131" t="n">
         <v>27.5</v>
       </c>
       <c r="D131" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E131" t="n">
         <v>27.5</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>1960.7926</v>
       </c>
       <c r="G131" t="n">
-        <v>27.46333333333332</v>
+        <v>27.45666666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5272,16 +5040,16 @@
         <v>27.5</v>
       </c>
       <c r="C132" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D132" t="n">
         <v>27.5</v>
       </c>
       <c r="E132" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F132" t="n">
-        <v>41017.6023</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
         <v>27.46333333333332</v>
@@ -5304,22 +5072,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C133" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D133" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E133" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F133" t="n">
-        <v>21</v>
+        <v>41017.6023</v>
       </c>
       <c r="G133" t="n">
-        <v>27.46833333333332</v>
+        <v>27.46333333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5342,16 +5110,16 @@
         <v>27.4</v>
       </c>
       <c r="C134" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D134" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E134" t="n">
         <v>27.4</v>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G134" t="n">
         <v>27.46833333333332</v>
@@ -5374,22 +5142,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C135" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D135" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E135" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F135" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>27.46666666666665</v>
+        <v>27.46833333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5404,6 +5172,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100</v>
+      </c>
+      <c r="G136" t="n">
+        <v>27.46666666666665</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-02 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>7318.5127</v>
       </c>
       <c r="G2" t="n">
+        <v>27.04666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>27.20833333333331</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>63321.3636</v>
       </c>
       <c r="G3" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="H3" t="n">
         <v>27.21666666666664</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3227.905</v>
       </c>
       <c r="G4" t="n">
+        <v>27.07333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>27.21499999999998</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>90</v>
       </c>
       <c r="G5" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="H5" t="n">
         <v>27.21499999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
+        <v>27.09333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>27.21666666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>25713.3522</v>
       </c>
       <c r="G7" t="n">
+        <v>27.11333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>27.21666666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1759.1752</v>
       </c>
       <c r="G8" t="n">
+        <v>27.13333333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>643.1135</v>
       </c>
       <c r="G9" t="n">
+        <v>27.15333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>43210.8471</v>
       </c>
       <c r="G10" t="n">
+        <v>27.17333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>27.22333333333331</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>24593.1517</v>
       </c>
       <c r="G11" t="n">
+        <v>27.18666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,22 +833,25 @@
         <v>1835.9674</v>
       </c>
       <c r="G12" t="n">
+        <v>27.20666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>27.21833333333332</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>27.1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>27.1</v>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -837,24 +875,29 @@
         <v>15004.4183</v>
       </c>
       <c r="G13" t="n">
+        <v>27.22000000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>27.21333333333331</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L13" t="n">
         <v>27.1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -878,26 +921,29 @@
         <v>380</v>
       </c>
       <c r="G14" t="n">
+        <v>27.24666666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>27.21333333333331</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>27.1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>27.1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -921,18 +967,25 @@
         <v>18885.9131</v>
       </c>
       <c r="G15" t="n">
+        <v>27.24000000000002</v>
+      </c>
+      <c r="H15" t="n">
         <v>27.20666666666665</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,18 +1009,29 @@
         <v>17524</v>
       </c>
       <c r="G16" t="n">
+        <v>27.23333333333335</v>
+      </c>
+      <c r="H16" t="n">
         <v>27.20666666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -991,18 +1055,29 @@
         <v>35100</v>
       </c>
       <c r="G17" t="n">
+        <v>27.21333333333335</v>
+      </c>
+      <c r="H17" t="n">
         <v>27.20166666666665</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,18 +1101,21 @@
         <v>7900</v>
       </c>
       <c r="G18" t="n">
+        <v>27.20000000000002</v>
+      </c>
+      <c r="H18" t="n">
         <v>27.19833333333331</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,18 +1139,21 @@
         <v>2900</v>
       </c>
       <c r="G19" t="n">
+        <v>27.22000000000002</v>
+      </c>
+      <c r="H19" t="n">
         <v>27.19999999999998</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,18 +1177,21 @@
         <v>87266</v>
       </c>
       <c r="G20" t="n">
+        <v>27.24000000000002</v>
+      </c>
+      <c r="H20" t="n">
         <v>27.20333333333331</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1131,18 +1215,21 @@
         <v>6600</v>
       </c>
       <c r="G21" t="n">
+        <v>27.22666666666668</v>
+      </c>
+      <c r="H21" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,18 +1253,21 @@
         <v>8180</v>
       </c>
       <c r="G22" t="n">
+        <v>27.22666666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,18 +1291,21 @@
         <v>1898.1989</v>
       </c>
       <c r="G23" t="n">
+        <v>27.22000000000002</v>
+      </c>
+      <c r="H23" t="n">
         <v>27.20333333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,18 +1329,21 @@
         <v>35908.672</v>
       </c>
       <c r="G24" t="n">
+        <v>27.20666666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>27.19999999999998</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1271,18 +1367,21 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
+        <v>27.21333333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>27.19999999999998</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,18 +1405,21 @@
         <v>23952.6623</v>
       </c>
       <c r="G26" t="n">
+        <v>27.22666666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1341,18 +1443,21 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
+        <v>27.24000000000002</v>
+      </c>
+      <c r="H27" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,18 +1481,21 @@
         <v>19373.6496</v>
       </c>
       <c r="G28" t="n">
+        <v>27.26000000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,18 +1519,21 @@
         <v>2000</v>
       </c>
       <c r="G29" t="n">
+        <v>27.26666666666668</v>
+      </c>
+      <c r="H29" t="n">
         <v>27.21166666666665</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,18 +1557,21 @@
         <v>6616.3776</v>
       </c>
       <c r="G30" t="n">
+        <v>27.28666666666668</v>
+      </c>
+      <c r="H30" t="n">
         <v>27.21833333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,18 +1595,21 @@
         <v>19293.2642</v>
       </c>
       <c r="G31" t="n">
+        <v>27.31333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,18 +1633,21 @@
         <v>21725.1739</v>
       </c>
       <c r="G32" t="n">
+        <v>27.32666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,18 +1671,21 @@
         <v>6089.1131</v>
       </c>
       <c r="G33" t="n">
+        <v>27.33333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1709,21 @@
         <v>10751</v>
       </c>
       <c r="G34" t="n">
+        <v>27.33333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>27.21833333333331</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1747,21 @@
         <v>22600</v>
       </c>
       <c r="G35" t="n">
+        <v>27.34000000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>27.21833333333331</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1785,21 @@
         <v>35.7568</v>
       </c>
       <c r="G36" t="n">
+        <v>27.34666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>27.21666666666664</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1823,21 @@
         <v>9588</v>
       </c>
       <c r="G37" t="n">
+        <v>27.36000000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>27.21666666666664</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +1861,21 @@
         <v>83167</v>
       </c>
       <c r="G38" t="n">
+        <v>27.38000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>27.21666666666664</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +1899,21 @@
         <v>17800</v>
       </c>
       <c r="G39" t="n">
+        <v>27.41333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>27.21999999999997</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +1937,21 @@
         <v>5400</v>
       </c>
       <c r="G40" t="n">
+        <v>27.43333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>27.22499999999997</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +1975,21 @@
         <v>22.7009</v>
       </c>
       <c r="G41" t="n">
+        <v>27.45333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>27.23333333333331</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +2013,21 @@
         <v>500</v>
       </c>
       <c r="G42" t="n">
+        <v>27.47333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>27.24333333333331</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2051,21 @@
         <v>25065.2158</v>
       </c>
       <c r="G43" t="n">
+        <v>27.50000000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>27.25499999999998</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2089,21 @@
         <v>588.7641</v>
       </c>
       <c r="G44" t="n">
+        <v>27.52000000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>27.26333333333331</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2127,21 @@
         <v>2059</v>
       </c>
       <c r="G45" t="n">
+        <v>27.54666666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>27.27333333333331</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2165,21 @@
         <v>63400</v>
       </c>
       <c r="G46" t="n">
+        <v>27.56666666666668</v>
+      </c>
+      <c r="H46" t="n">
         <v>27.28333333333331</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2203,21 @@
         <v>32659.75</v>
       </c>
       <c r="G47" t="n">
+        <v>27.59333333333335</v>
+      </c>
+      <c r="H47" t="n">
         <v>27.29499999999997</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2241,21 @@
         <v>1409.8214</v>
       </c>
       <c r="G48" t="n">
+        <v>27.63333333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>27.31166666666664</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2279,21 @@
         <v>74609.68610000001</v>
       </c>
       <c r="G49" t="n">
+        <v>27.68000000000002</v>
+      </c>
+      <c r="H49" t="n">
         <v>27.32666666666664</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2317,21 @@
         <v>1040</v>
       </c>
       <c r="G50" t="n">
+        <v>27.70000000000002</v>
+      </c>
+      <c r="H50" t="n">
         <v>27.33999999999997</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2355,21 @@
         <v>3800.1499</v>
       </c>
       <c r="G51" t="n">
+        <v>27.72000000000002</v>
+      </c>
+      <c r="H51" t="n">
         <v>27.34666666666664</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2393,21 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
+        <v>27.73333333333335</v>
+      </c>
+      <c r="H52" t="n">
         <v>27.35833333333331</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2431,21 @@
         <v>6400</v>
       </c>
       <c r="G53" t="n">
+        <v>27.73333333333335</v>
+      </c>
+      <c r="H53" t="n">
         <v>27.36666666666664</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2469,21 @@
         <v>8600</v>
       </c>
       <c r="G54" t="n">
+        <v>27.72666666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>27.37499999999998</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2507,21 @@
         <v>225488.7964</v>
       </c>
       <c r="G55" t="n">
+        <v>27.72000000000002</v>
+      </c>
+      <c r="H55" t="n">
         <v>27.38499999999997</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2545,21 @@
         <v>8691.758</v>
       </c>
       <c r="G56" t="n">
+        <v>27.70666666666668</v>
+      </c>
+      <c r="H56" t="n">
         <v>27.39333333333331</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2583,21 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
+        <v>27.69333333333335</v>
+      </c>
+      <c r="H57" t="n">
         <v>27.4033333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2621,21 @@
         <v>1406.2968</v>
       </c>
       <c r="G58" t="n">
+        <v>27.66666666666668</v>
+      </c>
+      <c r="H58" t="n">
         <v>27.41166666666664</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2659,21 @@
         <v>23823.5192</v>
       </c>
       <c r="G59" t="n">
+        <v>27.65333333333335</v>
+      </c>
+      <c r="H59" t="n">
         <v>27.42166666666663</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2697,21 @@
         <v>3865.2932</v>
       </c>
       <c r="G60" t="n">
+        <v>27.62666666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>27.42499999999997</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2735,21 @@
         <v>10661.3525</v>
       </c>
       <c r="G61" t="n">
+        <v>27.60000000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>27.4283333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2773,21 @@
         <v>118485.5596</v>
       </c>
       <c r="G62" t="n">
+        <v>27.56666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>27.42499999999997</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2811,21 @@
         <v>33571.3254</v>
       </c>
       <c r="G63" t="n">
+        <v>27.51333333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>27.41999999999997</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +2849,21 @@
         <v>17335.8794</v>
       </c>
       <c r="G64" t="n">
+        <v>27.47333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>27.42666666666664</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +2887,21 @@
         <v>2031.0653</v>
       </c>
       <c r="G65" t="n">
+        <v>27.44666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>27.43166666666664</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +2925,21 @@
         <v>27124.7375</v>
       </c>
       <c r="G66" t="n">
+        <v>27.42666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>27.42999999999997</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +2963,21 @@
         <v>14084.2124</v>
       </c>
       <c r="G67" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H67" t="n">
         <v>27.42999999999997</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3001,21 @@
         <v>7000</v>
       </c>
       <c r="G68" t="n">
+        <v>27.38666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>27.42999999999997</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,22 +3039,21 @@
         <v>12963.9999</v>
       </c>
       <c r="G69" t="n">
+        <v>27.37333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>27.42999999999997</v>
       </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K69" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,24 +3077,21 @@
         <v>11582.2102</v>
       </c>
       <c r="G70" t="n">
+        <v>27.36000000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>27.43166666666664</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2891,26 +3115,21 @@
         <v>9604.2912</v>
       </c>
       <c r="G71" t="n">
+        <v>27.35333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>27.43499999999997</v>
       </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K71" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,18 +3153,21 @@
         <v>42933.1122</v>
       </c>
       <c r="G72" t="n">
+        <v>27.32666666666668</v>
+      </c>
+      <c r="H72" t="n">
         <v>27.4333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,22 +3191,21 @@
         <v>2442.6187</v>
       </c>
       <c r="G73" t="n">
+        <v>27.32000000000001</v>
+      </c>
+      <c r="H73" t="n">
         <v>27.43666666666664</v>
       </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K73" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3008,26 +3229,21 @@
         <v>19497</v>
       </c>
       <c r="G74" t="n">
+        <v>27.31333333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>27.43833333333331</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K74" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3051,24 +3267,21 @@
         <v>7287.1636</v>
       </c>
       <c r="G75" t="n">
+        <v>27.31333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>27.44333333333331</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,18 +3305,21 @@
         <v>3964.7432</v>
       </c>
       <c r="G76" t="n">
+        <v>27.31333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>27.44833333333331</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3127,18 +3343,21 @@
         <v>3376.8789</v>
       </c>
       <c r="G77" t="n">
+        <v>27.32000000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>27.45166666666665</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,18 +3381,21 @@
         <v>46587.0745</v>
       </c>
       <c r="G78" t="n">
+        <v>27.33333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>27.45333333333332</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3197,18 +3419,21 @@
         <v>9375.844800000001</v>
       </c>
       <c r="G79" t="n">
+        <v>27.33333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>27.45499999999998</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,18 +3457,21 @@
         <v>9936.7816</v>
       </c>
       <c r="G80" t="n">
+        <v>27.33333333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>27.45499999999998</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3267,18 +3495,21 @@
         <v>5259.1263</v>
       </c>
       <c r="G81" t="n">
+        <v>27.34000000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>27.45833333333332</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,18 +3533,21 @@
         <v>10035.0976</v>
       </c>
       <c r="G82" t="n">
+        <v>27.34666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>27.45999999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3337,18 +3571,21 @@
         <v>78171.17110000001</v>
       </c>
       <c r="G83" t="n">
+        <v>27.35333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>27.46333333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,18 +3609,21 @@
         <v>16818.7826</v>
       </c>
       <c r="G84" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="H84" t="n">
         <v>27.46833333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3407,18 +3647,21 @@
         <v>3778.4091</v>
       </c>
       <c r="G85" t="n">
+        <v>27.36666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>27.46999999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,18 +3685,21 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
+        <v>27.39333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>27.47666666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3477,18 +3723,21 @@
         <v>5929.1998</v>
       </c>
       <c r="G87" t="n">
+        <v>27.41333333333332</v>
+      </c>
+      <c r="H87" t="n">
         <v>27.47666666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,18 +3761,21 @@
         <v>16904.4151</v>
       </c>
       <c r="G88" t="n">
+        <v>27.41333333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>27.47499999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3547,18 +3799,21 @@
         <v>1301.1475</v>
       </c>
       <c r="G89" t="n">
+        <v>27.40666666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>27.47333333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,18 +3837,21 @@
         <v>15718.7765</v>
       </c>
       <c r="G90" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H90" t="n">
         <v>27.47166666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3617,18 +3875,21 @@
         <v>3755.7862</v>
       </c>
       <c r="G91" t="n">
+        <v>27.39333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>27.46833333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,18 +3913,21 @@
         <v>682.5018</v>
       </c>
       <c r="G92" t="n">
+        <v>27.38666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>27.46666666666665</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3687,18 +3951,21 @@
         <v>8474</v>
       </c>
       <c r="G93" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="H93" t="n">
         <v>27.46499999999998</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,18 +3989,21 @@
         <v>3726.37</v>
       </c>
       <c r="G94" t="n">
+        <v>27.36666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>27.46333333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,18 +4027,21 @@
         <v>8402.567300000001</v>
       </c>
       <c r="G95" t="n">
+        <v>27.36000000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>27.45999999999998</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,18 +4065,21 @@
         <v>13503.9765</v>
       </c>
       <c r="G96" t="n">
+        <v>27.35333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>27.45999999999998</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3827,18 +4103,21 @@
         <v>1532.9071</v>
       </c>
       <c r="G97" t="n">
+        <v>27.34666666666668</v>
+      </c>
+      <c r="H97" t="n">
         <v>27.45666666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,18 +4141,21 @@
         <v>14600</v>
       </c>
       <c r="G98" t="n">
+        <v>27.33333333333335</v>
+      </c>
+      <c r="H98" t="n">
         <v>27.45166666666665</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3897,18 +4179,21 @@
         <v>1659</v>
       </c>
       <c r="G99" t="n">
+        <v>27.32666666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>27.44666666666665</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,18 +4217,21 @@
         <v>5830.9069</v>
       </c>
       <c r="G100" t="n">
+        <v>27.32000000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>27.44166666666665</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,18 +4255,21 @@
         <v>37632.139</v>
       </c>
       <c r="G101" t="n">
+        <v>27.28666666666668</v>
+      </c>
+      <c r="H101" t="n">
         <v>27.43499999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,18 +4293,21 @@
         <v>8769.0931</v>
       </c>
       <c r="G102" t="n">
+        <v>27.28666666666668</v>
+      </c>
+      <c r="H102" t="n">
         <v>27.42999999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4037,18 +4331,21 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
+        <v>27.30666666666668</v>
+      </c>
+      <c r="H103" t="n">
         <v>27.42666666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4072,18 +4369,21 @@
         <v>4903.6038</v>
       </c>
       <c r="G104" t="n">
+        <v>27.31333333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>27.42166666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4107,18 +4407,21 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
+        <v>27.33333333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>27.41833333333332</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,18 +4445,21 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
+        <v>27.32666666666668</v>
+      </c>
+      <c r="H106" t="n">
         <v>27.40833333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4177,18 +4483,21 @@
         <v>15810</v>
       </c>
       <c r="G107" t="n">
+        <v>27.32000000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>27.39833333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4212,18 +4521,21 @@
         <v>70</v>
       </c>
       <c r="G108" t="n">
+        <v>27.34000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>27.39166666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,18 +4559,21 @@
         <v>2188.4025</v>
       </c>
       <c r="G109" t="n">
+        <v>27.36666666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>27.38499999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4282,18 +4597,21 @@
         <v>400</v>
       </c>
       <c r="G110" t="n">
+        <v>27.39333333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>27.38333333333332</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4317,18 +4635,21 @@
         <v>1323.7978</v>
       </c>
       <c r="G111" t="n">
+        <v>27.42000000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>27.38499999999999</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,18 +4673,21 @@
         <v>20</v>
       </c>
       <c r="G112" t="n">
+        <v>27.43333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>27.38166666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4387,18 +4711,21 @@
         <v>30</v>
       </c>
       <c r="G113" t="n">
+        <v>27.46000000000002</v>
+      </c>
+      <c r="H113" t="n">
         <v>27.38333333333332</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,18 +4749,21 @@
         <v>20</v>
       </c>
       <c r="G114" t="n">
+        <v>27.46666666666668</v>
+      </c>
+      <c r="H114" t="n">
         <v>27.38166666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,18 +4787,21 @@
         <v>60</v>
       </c>
       <c r="G115" t="n">
+        <v>27.48666666666668</v>
+      </c>
+      <c r="H115" t="n">
         <v>27.38333333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,18 +4825,21 @@
         <v>40</v>
       </c>
       <c r="G116" t="n">
+        <v>27.50000000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>27.38333333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4527,18 +4863,21 @@
         <v>20</v>
       </c>
       <c r="G117" t="n">
+        <v>27.50000000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>27.38166666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,18 +4901,21 @@
         <v>3587.5181</v>
       </c>
       <c r="G118" t="n">
+        <v>27.50000000000001</v>
+      </c>
+      <c r="H118" t="n">
         <v>27.38499999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4597,18 +4939,21 @@
         <v>20</v>
       </c>
       <c r="G119" t="n">
+        <v>27.50000000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>27.38333333333332</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,18 +4977,21 @@
         <v>39499.0397</v>
       </c>
       <c r="G120" t="n">
+        <v>27.48666666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>27.38333333333332</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,18 +5015,21 @@
         <v>10</v>
       </c>
       <c r="G121" t="n">
+        <v>27.50666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>27.38499999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,18 +5053,21 @@
         <v>15300</v>
       </c>
       <c r="G122" t="n">
+        <v>27.55333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>27.39499999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,18 +5091,21 @@
         <v>20</v>
       </c>
       <c r="G123" t="n">
+        <v>27.58000000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>27.40833333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,18 +5129,21 @@
         <v>20</v>
       </c>
       <c r="G124" t="n">
+        <v>27.58000000000001</v>
+      </c>
+      <c r="H124" t="n">
         <v>27.41166666666665</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,18 +5167,21 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
+        <v>27.56666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>27.41333333333332</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,18 +5205,21 @@
         <v>90</v>
       </c>
       <c r="G126" t="n">
+        <v>27.58666666666668</v>
+      </c>
+      <c r="H126" t="n">
         <v>27.42499999999999</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,18 +5243,21 @@
         <v>10</v>
       </c>
       <c r="G127" t="n">
+        <v>27.60666666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>27.43333333333332</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,18 +5281,21 @@
         <v>95002.1182</v>
       </c>
       <c r="G128" t="n">
+        <v>27.62666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>27.44333333333332</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,18 +5319,21 @@
         <v>20</v>
       </c>
       <c r="G129" t="n">
+        <v>27.64000000000001</v>
+      </c>
+      <c r="H129" t="n">
         <v>27.44833333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,18 +5357,21 @@
         <v>20</v>
       </c>
       <c r="G130" t="n">
+        <v>27.64000000000001</v>
+      </c>
+      <c r="H130" t="n">
         <v>27.45333333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,18 +5395,21 @@
         <v>1960.7926</v>
       </c>
       <c r="G131" t="n">
+        <v>27.64666666666668</v>
+      </c>
+      <c r="H131" t="n">
         <v>27.45666666666665</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,18 +5433,21 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
+        <v>27.65333333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>27.46333333333332</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,18 +5471,21 @@
         <v>41017.6023</v>
       </c>
       <c r="G133" t="n">
+        <v>27.63333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>27.46333333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,18 +5509,21 @@
         <v>21</v>
       </c>
       <c r="G134" t="n">
+        <v>27.65333333333335</v>
+      </c>
+      <c r="H134" t="n">
         <v>27.46833333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5157,18 +5547,21 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
+        <v>27.65333333333335</v>
+      </c>
+      <c r="H135" t="n">
         <v>27.46833333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,18 +5585,401 @@
         <v>100</v>
       </c>
       <c r="G136" t="n">
+        <v>27.64000000000001</v>
+      </c>
+      <c r="H136" t="n">
         <v>27.46666666666665</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100</v>
+      </c>
+      <c r="G137" t="n">
+        <v>27.60000000000002</v>
+      </c>
+      <c r="H137" t="n">
+        <v>27.46499999999998</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1796.607</v>
+      </c>
+      <c r="G138" t="n">
+        <v>27.55333333333335</v>
+      </c>
+      <c r="H138" t="n">
+        <v>27.46333333333331</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>858.7329999999999</v>
+      </c>
+      <c r="G139" t="n">
+        <v>27.53333333333335</v>
+      </c>
+      <c r="H139" t="n">
+        <v>27.46166666666664</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>70</v>
+      </c>
+      <c r="G140" t="n">
+        <v>27.52000000000002</v>
+      </c>
+      <c r="H140" t="n">
+        <v>27.45999999999998</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>48342.9742</v>
+      </c>
+      <c r="G141" t="n">
+        <v>27.50000000000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>27.46499999999997</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>23909.3176</v>
+      </c>
+      <c r="G142" t="n">
+        <v>27.48000000000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>27.46666666666664</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>90397.4488</v>
+      </c>
+      <c r="G143" t="n">
+        <v>27.44666666666668</v>
+      </c>
+      <c r="H143" t="n">
+        <v>27.46666666666664</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>882.4199</v>
+      </c>
+      <c r="G144" t="n">
+        <v>27.44000000000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>27.46833333333331</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10</v>
+      </c>
+      <c r="G145" t="n">
+        <v>27.42000000000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>27.46666666666664</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>27.41333333333334</v>
+      </c>
+      <c r="H146" t="n">
+        <v>27.46166666666664</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-02 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C2" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D2" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E2" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F2" t="n">
-        <v>17990.7664</v>
+        <v>18885.9131</v>
       </c>
       <c r="G2" t="n">
-        <v>1008.746699999909</v>
+        <v>-289258.8958000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D3" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E3" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F3" t="n">
-        <v>4363.6392</v>
+        <v>17524</v>
       </c>
       <c r="G3" t="n">
-        <v>1008.746699999909</v>
+        <v>-289258.8958000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C4" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D4" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E4" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>35100</v>
       </c>
       <c r="G4" t="n">
-        <v>1048.746699999909</v>
+        <v>-254158.8958000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C5" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E5" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F5" t="n">
-        <v>4794.5726</v>
+        <v>7900</v>
       </c>
       <c r="G5" t="n">
-        <v>-3745.825900000092</v>
+        <v>-246258.8958000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D6" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E6" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>2900</v>
       </c>
       <c r="G6" t="n">
-        <v>-3705.825900000092</v>
+        <v>-246258.8958000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C7" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D7" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E7" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F7" t="n">
-        <v>10807.4816</v>
+        <v>87266</v>
       </c>
       <c r="G7" t="n">
-        <v>-3705.825900000092</v>
+        <v>-158992.8958000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D8" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E8" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>6600</v>
       </c>
       <c r="G8" t="n">
-        <v>-3715.825900000092</v>
+        <v>-165592.8958000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -690,10 +702,10 @@
         <v>27.3</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>8180</v>
       </c>
       <c r="G9" t="n">
-        <v>-3725.825900000092</v>
+        <v>-157412.8958000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C10" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D10" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E10" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F10" t="n">
-        <v>5501.529</v>
+        <v>1898.1989</v>
       </c>
       <c r="G10" t="n">
-        <v>-9227.354900000093</v>
+        <v>-159311.0947</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C11" t="n">
         <v>27.1</v>
       </c>
       <c r="D11" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E11" t="n">
         <v>27.1</v>
       </c>
       <c r="F11" t="n">
-        <v>1579.1809</v>
+        <v>35908.672</v>
       </c>
       <c r="G11" t="n">
-        <v>-9227.354900000093</v>
+        <v>-195219.7667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C12" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D12" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E12" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-9227.354900000093</v>
+        <v>-195209.7667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D13" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E13" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F13" t="n">
-        <v>35.8823</v>
+        <v>23952.6623</v>
       </c>
       <c r="G13" t="n">
-        <v>-9191.472600000094</v>
+        <v>-195209.7667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C14" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D14" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E14" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F14" t="n">
-        <v>964.1177</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-9191.472600000094</v>
+        <v>-195199.7667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C15" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D15" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E15" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F15" t="n">
-        <v>9035.882299999999</v>
+        <v>19373.6496</v>
       </c>
       <c r="G15" t="n">
-        <v>-9191.472600000094</v>
+        <v>-195199.7667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D16" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E16" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F16" t="n">
-        <v>97832.65850000001</v>
+        <v>2000</v>
       </c>
       <c r="G16" t="n">
-        <v>-107024.1311000001</v>
+        <v>-195199.7667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="D17" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F17" t="n">
-        <v>9786.326800000001</v>
+        <v>6616.3776</v>
       </c>
       <c r="G17" t="n">
-        <v>-116810.4579000001</v>
+        <v>-195199.7667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C18" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="D18" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E18" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F18" t="n">
-        <v>1871.9412</v>
+        <v>19293.2642</v>
       </c>
       <c r="G18" t="n">
-        <v>-114938.5167000001</v>
+        <v>-175906.5025</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F19" t="n">
-        <v>19200</v>
+        <v>21725.1739</v>
       </c>
       <c r="G19" t="n">
-        <v>-134138.5167000001</v>
+        <v>-197631.6764</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C20" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D20" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E20" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>6089.1131</v>
       </c>
       <c r="G20" t="n">
-        <v>-134128.5167000001</v>
+        <v>-197631.6764</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F21" t="n">
-        <v>28927.7509</v>
+        <v>10751</v>
       </c>
       <c r="G21" t="n">
-        <v>-163056.2676000001</v>
+        <v>-208382.6764</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="E22" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F22" t="n">
-        <v>41839.5571</v>
+        <v>22600</v>
       </c>
       <c r="G22" t="n">
-        <v>-163056.2676000001</v>
+        <v>-185782.6764</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E23" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F23" t="n">
-        <v>22000</v>
+        <v>35.7568</v>
       </c>
       <c r="G23" t="n">
-        <v>-163056.2676000001</v>
+        <v>-185818.4332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="C24" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="E24" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="F24" t="n">
-        <v>9034.5209</v>
+        <v>9588</v>
       </c>
       <c r="G24" t="n">
-        <v>-172090.7885000001</v>
+        <v>-176230.4332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="C25" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="D25" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="E25" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="F25" t="n">
-        <v>77813.2205</v>
+        <v>83167</v>
       </c>
       <c r="G25" t="n">
-        <v>-172090.7885000001</v>
+        <v>-176230.4332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="D26" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="E26" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="F26" t="n">
-        <v>27823.9204</v>
+        <v>17800</v>
       </c>
       <c r="G26" t="n">
-        <v>-172090.7885000001</v>
+        <v>-158430.4332</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="C27" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="D27" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="E27" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="F27" t="n">
-        <v>1116.9144</v>
+        <v>5400</v>
       </c>
       <c r="G27" t="n">
-        <v>-172090.7885000001</v>
+        <v>-158430.4332</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="C28" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="D28" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="E28" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="F28" t="n">
-        <v>1808.2998</v>
+        <v>22.7009</v>
       </c>
       <c r="G28" t="n">
-        <v>-172090.7885000001</v>
+        <v>-158430.4332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="C29" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D29" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="E29" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="F29" t="n">
-        <v>3833</v>
+        <v>500</v>
       </c>
       <c r="G29" t="n">
-        <v>-168257.7885000001</v>
+        <v>-157930.4332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C30" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="D30" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E30" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="F30" t="n">
-        <v>7881.3308</v>
+        <v>25065.2158</v>
       </c>
       <c r="G30" t="n">
-        <v>-168257.7885000001</v>
+        <v>-132865.2174</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C31" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D31" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E31" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="F31" t="n">
-        <v>7318.5127</v>
+        <v>588.7641</v>
       </c>
       <c r="G31" t="n">
-        <v>-160939.2758000001</v>
+        <v>-133453.9815</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C32" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D32" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E32" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F32" t="n">
-        <v>63321.3636</v>
+        <v>2059</v>
       </c>
       <c r="G32" t="n">
-        <v>-160939.2758000001</v>
+        <v>-131394.9815</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="D33" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="E33" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="F33" t="n">
-        <v>3227.905</v>
+        <v>63400</v>
       </c>
       <c r="G33" t="n">
-        <v>-164167.1808000001</v>
+        <v>-131394.9815</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="C34" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="D34" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="E34" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="F34" t="n">
-        <v>90</v>
+        <v>32659.75</v>
       </c>
       <c r="G34" t="n">
-        <v>-164077.1808000001</v>
+        <v>-131394.9815</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="C35" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="E35" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>1409.8214</v>
       </c>
       <c r="G35" t="n">
-        <v>-164067.1808000001</v>
+        <v>-129985.1601</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="C36" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="E36" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F36" t="n">
-        <v>25713.3522</v>
+        <v>74609.68610000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-189780.5330000001</v>
+        <v>-129985.1601</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="C37" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="D37" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="E37" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F37" t="n">
-        <v>1759.1752</v>
+        <v>1040</v>
       </c>
       <c r="G37" t="n">
-        <v>-189780.5330000001</v>
+        <v>-131025.1601</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C38" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D38" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E38" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F38" t="n">
-        <v>643.1135</v>
+        <v>3800.1499</v>
       </c>
       <c r="G38" t="n">
-        <v>-189780.5330000001</v>
+        <v>-134825.31</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="C39" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D39" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="E39" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F39" t="n">
-        <v>43210.8471</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>-232991.3801000001</v>
+        <v>-134815.31</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="C40" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="D40" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E40" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="F40" t="n">
-        <v>24593.1517</v>
+        <v>6400</v>
       </c>
       <c r="G40" t="n">
-        <v>-257584.5318000001</v>
+        <v>-141215.31</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C41" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="D41" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E41" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F41" t="n">
-        <v>1835.9674</v>
+        <v>8600</v>
       </c>
       <c r="G41" t="n">
-        <v>-255748.5644000001</v>
+        <v>-141215.31</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="C42" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="D42" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E42" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="F42" t="n">
-        <v>15004.4183</v>
+        <v>225488.7964</v>
       </c>
       <c r="G42" t="n">
-        <v>-270752.9827000001</v>
+        <v>-141215.31</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C43" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D43" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E43" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F43" t="n">
-        <v>380</v>
+        <v>8691.758</v>
       </c>
       <c r="G43" t="n">
-        <v>-270372.9827000001</v>
+        <v>-149907.068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="C44" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="D44" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E44" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="F44" t="n">
-        <v>18885.9131</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-289258.8958000001</v>
+        <v>-149897.068</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C45" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D45" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E45" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F45" t="n">
-        <v>17524</v>
+        <v>1406.2968</v>
       </c>
       <c r="G45" t="n">
-        <v>-289258.8958000001</v>
+        <v>-151303.3648</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C46" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="D46" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E46" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F46" t="n">
-        <v>35100</v>
+        <v>23823.5192</v>
       </c>
       <c r="G46" t="n">
-        <v>-254158.8958000001</v>
+        <v>-127479.8456</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C47" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D47" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E47" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F47" t="n">
-        <v>7900</v>
+        <v>3865.2932</v>
       </c>
       <c r="G47" t="n">
-        <v>-246258.8958000001</v>
+        <v>-131345.1388</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C48" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D48" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E48" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F48" t="n">
-        <v>2900</v>
+        <v>10661.3525</v>
       </c>
       <c r="G48" t="n">
-        <v>-246258.8958000001</v>
+        <v>-131345.1388</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2081,19 +2133,19 @@
         <v>27.3</v>
       </c>
       <c r="C49" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D49" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E49" t="n">
         <v>27.3</v>
       </c>
       <c r="F49" t="n">
-        <v>87266</v>
+        <v>118485.5596</v>
       </c>
       <c r="G49" t="n">
-        <v>-158992.8958000001</v>
+        <v>-249830.6984000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2125,10 +2178,10 @@
         <v>27.2</v>
       </c>
       <c r="F50" t="n">
-        <v>6600</v>
+        <v>33571.3254</v>
       </c>
       <c r="G50" t="n">
-        <v>-165592.8958000001</v>
+        <v>-283402.0238000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C51" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D51" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E51" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F51" t="n">
-        <v>8180</v>
+        <v>17335.8794</v>
       </c>
       <c r="G51" t="n">
-        <v>-157412.8958000001</v>
+        <v>-266066.1444000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,63 +2231,69 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C52" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D52" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E52" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F52" t="n">
-        <v>1898.1989</v>
+        <v>2031.0653</v>
       </c>
       <c r="G52" t="n">
-        <v>-159311.0947</v>
+        <v>-266066.1444000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>27.4</v>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C53" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D53" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E53" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F53" t="n">
-        <v>35908.672</v>
+        <v>27124.7375</v>
       </c>
       <c r="G53" t="n">
-        <v>-195219.7667</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,11 +2302,18 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2265,23 +2332,32 @@
         <v>27.3</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>14084.2124</v>
       </c>
       <c r="G54" t="n">
-        <v>-195209.7667</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2300,198 +2376,244 @@
         <v>27.3</v>
       </c>
       <c r="F55" t="n">
-        <v>23952.6623</v>
+        <v>7000</v>
       </c>
       <c r="G55" t="n">
-        <v>-195209.7667</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>27.3</v>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C56" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D56" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E56" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>12963.9999</v>
       </c>
       <c r="G56" t="n">
-        <v>-195199.7667</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C57" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D57" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E57" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F57" t="n">
-        <v>19373.6496</v>
+        <v>11582.2102</v>
       </c>
       <c r="G57" t="n">
-        <v>-195199.7667</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C58" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D58" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E58" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>9604.2912</v>
       </c>
       <c r="G58" t="n">
-        <v>-195199.7667</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K58" t="n">
+        <v>27.3</v>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C59" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D59" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E59" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F59" t="n">
-        <v>6616.3776</v>
+        <v>42933.1122</v>
       </c>
       <c r="G59" t="n">
-        <v>-195199.7667</v>
+        <v>-336123.9941000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C60" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D60" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E60" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F60" t="n">
-        <v>19293.2642</v>
+        <v>2442.6187</v>
       </c>
       <c r="G60" t="n">
-        <v>-175906.5025</v>
+        <v>-333681.3754000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2510,103 +2632,130 @@
         <v>27.4</v>
       </c>
       <c r="F61" t="n">
-        <v>21725.1739</v>
+        <v>19497</v>
       </c>
       <c r="G61" t="n">
-        <v>-197631.6764</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C62" t="n">
         <v>27.4</v>
       </c>
       <c r="D62" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E62" t="n">
         <v>27.4</v>
       </c>
       <c r="F62" t="n">
-        <v>6089.1131</v>
+        <v>7287.1636</v>
       </c>
       <c r="G62" t="n">
-        <v>-197631.6764</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C63" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D63" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E63" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F63" t="n">
-        <v>10751</v>
+        <v>3964.7432</v>
       </c>
       <c r="G63" t="n">
-        <v>-208382.6764</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C64" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D64" t="n">
         <v>27.5</v>
@@ -2615,45 +2764,54 @@
         <v>27.4</v>
       </c>
       <c r="F64" t="n">
-        <v>22600</v>
+        <v>3376.8789</v>
       </c>
       <c r="G64" t="n">
-        <v>-185782.6764</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C65" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D65" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E65" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F65" t="n">
-        <v>35.7568</v>
+        <v>46587.0745</v>
       </c>
       <c r="G65" t="n">
-        <v>-185818.4332</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,68 +2820,84 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C66" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D66" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E66" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F66" t="n">
-        <v>9588</v>
+        <v>9375.844800000001</v>
       </c>
       <c r="G66" t="n">
-        <v>-176230.4332</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C67" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D67" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E67" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F67" t="n">
-        <v>83167</v>
+        <v>9936.7816</v>
       </c>
       <c r="G67" t="n">
-        <v>-176230.4332</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,103 +2906,128 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C68" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D68" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E68" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F68" t="n">
-        <v>17800</v>
+        <v>5259.1263</v>
       </c>
       <c r="G68" t="n">
-        <v>-158430.4332</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K68" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C69" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D69" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E69" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F69" t="n">
-        <v>5400</v>
+        <v>10035.0976</v>
       </c>
       <c r="G69" t="n">
-        <v>-158430.4332</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K69" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C70" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D70" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E70" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F70" t="n">
-        <v>22.7009</v>
+        <v>78171.17110000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-158430.4332</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,81 +3036,106 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C71" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="D71" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E71" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>16818.7826</v>
       </c>
       <c r="G71" t="n">
-        <v>-157930.4332</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K71" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C72" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D72" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E72" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F72" t="n">
-        <v>25065.2158</v>
+        <v>3778.4091</v>
       </c>
       <c r="G72" t="n">
-        <v>-132865.2174</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2930,255 +3154,316 @@
         <v>27.7</v>
       </c>
       <c r="F73" t="n">
-        <v>588.7641</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-133453.9815</v>
+        <v>-314174.3754000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K73" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C74" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D74" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E74" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F74" t="n">
-        <v>2059</v>
+        <v>5929.1998</v>
       </c>
       <c r="G74" t="n">
-        <v>-131394.9815</v>
+        <v>-320103.5752000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K74" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C75" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="D75" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E75" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F75" t="n">
-        <v>63400</v>
+        <v>16904.4151</v>
       </c>
       <c r="G75" t="n">
-        <v>-131394.9815</v>
+        <v>-337007.9903000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="C76" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E76" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F76" t="n">
-        <v>32659.75</v>
+        <v>1301.1475</v>
       </c>
       <c r="G76" t="n">
-        <v>-131394.9815</v>
+        <v>-337007.9903000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="C77" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="D77" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E77" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="F77" t="n">
-        <v>1409.8214</v>
+        <v>15718.7765</v>
       </c>
       <c r="G77" t="n">
-        <v>-129985.1601</v>
+        <v>-337007.9903000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K77" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="D78" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E78" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F78" t="n">
-        <v>74609.68610000001</v>
+        <v>3755.7862</v>
       </c>
       <c r="G78" t="n">
-        <v>-129985.1601</v>
+        <v>-337007.9903000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K78" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="C79" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="D79" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="E79" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F79" t="n">
-        <v>1040</v>
+        <v>682.5018</v>
       </c>
       <c r="G79" t="n">
-        <v>-131025.1601</v>
+        <v>-337007.9903000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C80" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D80" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E80" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F80" t="n">
-        <v>3800.1499</v>
+        <v>8474</v>
       </c>
       <c r="G80" t="n">
-        <v>-134825.31</v>
+        <v>-337007.9903000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3472,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C81" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D81" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E81" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>3726.37</v>
       </c>
       <c r="G81" t="n">
-        <v>-134815.31</v>
+        <v>-340734.3603000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,33 +3514,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C82" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D82" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E82" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F82" t="n">
-        <v>6400</v>
+        <v>8402.567300000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-141215.31</v>
+        <v>-332331.7930000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,33 +3556,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C83" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D83" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E83" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F83" t="n">
-        <v>8600</v>
+        <v>13503.9765</v>
       </c>
       <c r="G83" t="n">
-        <v>-141215.31</v>
+        <v>-332331.7930000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,33 +3598,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C84" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D84" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E84" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F84" t="n">
-        <v>225488.7964</v>
+        <v>1532.9071</v>
       </c>
       <c r="G84" t="n">
-        <v>-141215.31</v>
+        <v>-332331.7930000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,151 +3640,192 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C85" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D85" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E85" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F85" t="n">
-        <v>8691.758</v>
+        <v>14600</v>
       </c>
       <c r="G85" t="n">
-        <v>-149907.068</v>
+        <v>-346931.7930000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C86" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D86" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E86" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>1659</v>
       </c>
       <c r="G86" t="n">
-        <v>-149897.068</v>
+        <v>-345272.7930000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C87" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D87" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E87" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F87" t="n">
-        <v>1406.2968</v>
+        <v>5830.9069</v>
       </c>
       <c r="G87" t="n">
-        <v>-151303.3648</v>
+        <v>-345272.7930000001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K87" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C88" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D88" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E88" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F88" t="n">
-        <v>23823.5192</v>
+        <v>37632.139</v>
       </c>
       <c r="G88" t="n">
-        <v>-127479.8456</v>
+        <v>-382904.9320000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K88" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3490,128 +3844,164 @@
         <v>27.4</v>
       </c>
       <c r="F89" t="n">
-        <v>3865.2932</v>
+        <v>8769.0931</v>
       </c>
       <c r="G89" t="n">
-        <v>-131345.1388</v>
+        <v>-374135.8389000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K89" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C90" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D90" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E90" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F90" t="n">
-        <v>10661.3525</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>-131345.1388</v>
+        <v>-374125.8389000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K90" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C91" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D91" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E91" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F91" t="n">
-        <v>118485.5596</v>
+        <v>4903.6038</v>
       </c>
       <c r="G91" t="n">
-        <v>-249830.6984000001</v>
+        <v>-379029.4427000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K91" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="C92" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D92" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="E92" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="F92" t="n">
-        <v>33571.3254</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-283402.0238000001</v>
+        <v>-379019.4427000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K92" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3621,159 +4011,195 @@
         <v>27.2</v>
       </c>
       <c r="C93" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D93" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E93" t="n">
         <v>27.2</v>
       </c>
       <c r="F93" t="n">
-        <v>17335.8794</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>-266066.1444000001</v>
+        <v>-379029.4427000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K93" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C94" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D94" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E94" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F94" t="n">
-        <v>2031.0653</v>
+        <v>15810</v>
       </c>
       <c r="G94" t="n">
-        <v>-266066.1444000001</v>
+        <v>-379029.4427000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C95" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D95" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E95" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F95" t="n">
-        <v>27124.7375</v>
+        <v>70</v>
       </c>
       <c r="G95" t="n">
-        <v>-293190.8819000001</v>
+        <v>-378959.4427000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C96" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D96" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E96" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F96" t="n">
-        <v>14084.2124</v>
+        <v>2188.4025</v>
       </c>
       <c r="G96" t="n">
-        <v>-293190.8819000001</v>
+        <v>-378959.4427000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K96" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C97" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D97" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E97" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F97" t="n">
-        <v>7000</v>
+        <v>400</v>
       </c>
       <c r="G97" t="n">
-        <v>-293190.8819000001</v>
+        <v>-378559.4427000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,33 +4208,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C98" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D98" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E98" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F98" t="n">
-        <v>12963.9999</v>
+        <v>1323.7978</v>
       </c>
       <c r="G98" t="n">
-        <v>-293190.8819000001</v>
+        <v>-378559.4427000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,158 +4250,166 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C99" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D99" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E99" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F99" t="n">
-        <v>11582.2102</v>
+        <v>20</v>
       </c>
       <c r="G99" t="n">
-        <v>-293190.8819000001</v>
+        <v>-378579.4427000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>27.3</v>
       </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C100" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D100" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E100" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F100" t="n">
-        <v>9604.2912</v>
+        <v>30</v>
       </c>
       <c r="G100" t="n">
-        <v>-293190.8819000001</v>
+        <v>-378549.4427000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>27.3</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C101" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D101" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E101" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F101" t="n">
-        <v>42933.1122</v>
+        <v>20</v>
       </c>
       <c r="G101" t="n">
-        <v>-336123.9941000001</v>
+        <v>-378569.4427000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>27.3</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C102" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D102" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E102" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F102" t="n">
-        <v>2442.6187</v>
+        <v>60</v>
       </c>
       <c r="G102" t="n">
-        <v>-333681.3754000001</v>
+        <v>-378509.4427000001</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -3977,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="K102" t="n">
         <v>27.3</v>
@@ -3990,6 +4431,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4002,16 +4444,16 @@
         <v>27.4</v>
       </c>
       <c r="D103" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E103" t="n">
         <v>27.4</v>
       </c>
       <c r="F103" t="n">
-        <v>19497</v>
+        <v>40</v>
       </c>
       <c r="G103" t="n">
-        <v>-314184.3754000001</v>
+        <v>-378549.4427000001</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
@@ -4020,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="K103" t="n">
         <v>27.3</v>
@@ -4033,36 +4475,39 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C104" t="n">
         <v>27.4</v>
       </c>
       <c r="D104" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E104" t="n">
         <v>27.4</v>
       </c>
       <c r="F104" t="n">
-        <v>7287.1636</v>
+        <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>-314184.3754000001</v>
+        <v>-378549.4427000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>27.4</v>
+      </c>
       <c r="K104" t="n">
         <v>27.3</v>
       </c>
@@ -4074,36 +4519,39 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C105" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D105" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E105" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F105" t="n">
-        <v>3964.7432</v>
+        <v>3587.5181</v>
       </c>
       <c r="G105" t="n">
-        <v>-314184.3754000001</v>
+        <v>-374961.9246000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>27.4</v>
+      </c>
       <c r="K105" t="n">
         <v>27.3</v>
       </c>
@@ -4115,6 +4563,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4133,10 +4582,10 @@
         <v>27.4</v>
       </c>
       <c r="F106" t="n">
-        <v>3376.8789</v>
+        <v>20</v>
       </c>
       <c r="G106" t="n">
-        <v>-314184.3754000001</v>
+        <v>-374981.9246000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4156,28 +4605,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C107" t="n">
         <v>27.4</v>
       </c>
       <c r="D107" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E107" t="n">
         <v>27.4</v>
       </c>
       <c r="F107" t="n">
-        <v>46587.0745</v>
+        <v>39499.0397</v>
       </c>
       <c r="G107" t="n">
-        <v>-314184.3754000001</v>
+        <v>-374981.9246000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4197,28 +4647,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C108" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D108" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E108" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F108" t="n">
-        <v>9375.844800000001</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-314184.3754000001</v>
+        <v>-374971.9246000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4238,28 +4689,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C109" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="D109" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="E109" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F109" t="n">
-        <v>9936.7816</v>
+        <v>15300</v>
       </c>
       <c r="G109" t="n">
-        <v>-314184.3754000001</v>
+        <v>-359671.9246000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4279,34 +4731,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C110" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="D110" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="E110" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F110" t="n">
-        <v>5259.1263</v>
+        <v>20</v>
       </c>
       <c r="G110" t="n">
-        <v>-314184.3754000001</v>
+        <v>-359651.9246000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
@@ -4314,176 +4767,157 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>1</v>
-      </c>
+        <v>1.020641025641026</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C111" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D111" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E111" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F111" t="n">
-        <v>10035.0976</v>
+        <v>20</v>
       </c>
       <c r="G111" t="n">
-        <v>-314184.3754000001</v>
+        <v>-359671.9246000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C112" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D112" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E112" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F112" t="n">
-        <v>78171.17110000001</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>-314184.3754000001</v>
+        <v>-359681.9246000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C113" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="D113" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="E113" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F113" t="n">
-        <v>16818.7826</v>
+        <v>90</v>
       </c>
       <c r="G113" t="n">
-        <v>-314184.3754000001</v>
+        <v>-359591.9246000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C114" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D114" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E114" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F114" t="n">
-        <v>3778.4091</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>-314184.3754000001</v>
+        <v>-359601.9246000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4493,38 +4927,33 @@
         <v>27.7</v>
       </c>
       <c r="C115" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D115" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E115" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>95002.1182</v>
       </c>
       <c r="G115" t="n">
-        <v>-314174.3754000001</v>
+        <v>-264599.8064000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4534,19 +4963,19 @@
         <v>27.5</v>
       </c>
       <c r="C116" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D116" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E116" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F116" t="n">
-        <v>5929.1998</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>-320103.5752000001</v>
+        <v>-264619.8064000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4555,45 +4984,40 @@
         <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>0.9986630036630036</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C117" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D117" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E117" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F117" t="n">
-        <v>16904.4151</v>
+        <v>20</v>
       </c>
       <c r="G117" t="n">
-        <v>-337007.9903000001</v>
+        <v>-264619.8064000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4601,34 +5025,35 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C118" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D118" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E118" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F118" t="n">
-        <v>1301.1475</v>
+        <v>1960.7926</v>
       </c>
       <c r="G118" t="n">
-        <v>-337007.9903000001</v>
+        <v>-266580.5990000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4636,34 +5061,35 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C119" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D119" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E119" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F119" t="n">
-        <v>15718.7765</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>-337007.9903000001</v>
+        <v>-266580.5990000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4671,34 +5097,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C120" t="n">
         <v>27.3</v>
       </c>
       <c r="D120" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E120" t="n">
         <v>27.3</v>
       </c>
       <c r="F120" t="n">
-        <v>3755.7862</v>
+        <v>41017.6023</v>
       </c>
       <c r="G120" t="n">
-        <v>-337007.9903000001</v>
+        <v>-307598.2013000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4706,34 +5133,35 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C121" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D121" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E121" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F121" t="n">
-        <v>682.5018</v>
+        <v>21</v>
       </c>
       <c r="G121" t="n">
-        <v>-337007.9903000001</v>
+        <v>-307577.2013000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4741,34 +5169,35 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C122" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D122" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E122" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F122" t="n">
-        <v>8474</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-337007.9903000001</v>
+        <v>-307587.2013000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4776,6 +5205,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4785,19 +5215,19 @@
         <v>27.3</v>
       </c>
       <c r="C123" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D123" t="n">
         <v>27.3</v>
       </c>
       <c r="E123" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F123" t="n">
-        <v>3726.37</v>
+        <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>-340734.3603000001</v>
+        <v>-307687.2013000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4811,6 +5241,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4829,10 +5260,10 @@
         <v>27.3</v>
       </c>
       <c r="F124" t="n">
-        <v>8402.567300000001</v>
+        <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>-332331.7930000001</v>
+        <v>-307687.2013000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4846,28 +5277,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C125" t="n">
         <v>27.3</v>
       </c>
       <c r="D125" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E125" t="n">
         <v>27.3</v>
       </c>
       <c r="F125" t="n">
-        <v>13503.9765</v>
+        <v>1796.607</v>
       </c>
       <c r="G125" t="n">
-        <v>-332331.7930000001</v>
+        <v>-307687.2013000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4881,28 +5313,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C126" t="n">
         <v>27.3</v>
       </c>
       <c r="D126" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E126" t="n">
         <v>27.3</v>
       </c>
       <c r="F126" t="n">
-        <v>1532.9071</v>
+        <v>858.7329999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>-332331.7930000001</v>
+        <v>-307687.2013000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4916,28 +5349,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C127" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D127" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E127" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F127" t="n">
-        <v>14600</v>
+        <v>70</v>
       </c>
       <c r="G127" t="n">
-        <v>-346931.7930000001</v>
+        <v>-307687.2013000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4951,28 +5385,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C128" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D128" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E128" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F128" t="n">
-        <v>1659</v>
+        <v>48342.9742</v>
       </c>
       <c r="G128" t="n">
-        <v>-345272.7930000001</v>
+        <v>-259344.2271000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4986,28 +5421,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C129" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D129" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E129" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F129" t="n">
-        <v>5830.9069</v>
+        <v>23909.3176</v>
       </c>
       <c r="G129" t="n">
-        <v>-345272.7930000001</v>
+        <v>-283253.5447000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5021,28 +5457,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C130" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D130" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E130" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F130" t="n">
-        <v>37632.139</v>
+        <v>90397.4488</v>
       </c>
       <c r="G130" t="n">
-        <v>-382904.9320000001</v>
+        <v>-373650.9935000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5056,28 +5493,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C131" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D131" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E131" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F131" t="n">
-        <v>8769.0931</v>
+        <v>882.4199</v>
       </c>
       <c r="G131" t="n">
-        <v>-374135.8389000001</v>
+        <v>-372768.5736000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5091,28 +5529,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C132" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D132" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E132" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F132" t="n">
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>-374125.8389000001</v>
+        <v>-372778.5736000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5126,6 +5565,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5144,10 +5584,10 @@
         <v>27.4</v>
       </c>
       <c r="F133" t="n">
-        <v>4903.6038</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-379029.4427000001</v>
+        <v>-372768.5736000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5161,1476 +5601,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E134" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>10</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-379019.4427000001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C135" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F135" t="n">
-        <v>10</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-379029.4427000001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C136" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E136" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>15810</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-379029.4427000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E137" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F137" t="n">
-        <v>70</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-378959.4427000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C138" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D138" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2188.4025</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-378959.4427000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>400</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-378559.4427000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1323.7978</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-378559.4427000001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C141" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E141" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>20</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-378579.4427000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C142" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E142" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F142" t="n">
-        <v>30</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-378549.4427000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F143" t="n">
-        <v>20</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-378569.4427000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>60</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-378509.4427000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>40</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-378549.4427000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E146" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F146" t="n">
-        <v>20</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-378549.4427000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3587.5181</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-374961.9246000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F148" t="n">
-        <v>20</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-374981.9246000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>39499.0397</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-374981.9246000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D150" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>10</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-374971.9246000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C151" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D151" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E151" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F151" t="n">
-        <v>15300</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-359671.9246000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C152" t="n">
-        <v>28</v>
-      </c>
-      <c r="D152" t="n">
-        <v>28</v>
-      </c>
-      <c r="E152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F152" t="n">
-        <v>20</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-359651.9246000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D153" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F153" t="n">
-        <v>20</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-359671.9246000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C154" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D154" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E154" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F154" t="n">
-        <v>10</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-359681.9246000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C155" t="n">
-        <v>28</v>
-      </c>
-      <c r="D155" t="n">
-        <v>28</v>
-      </c>
-      <c r="E155" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F155" t="n">
-        <v>90</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-359591.9246000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C156" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>10</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-359601.9246000001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C157" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D157" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>95002.1182</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-264599.8064000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D158" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E158" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>20</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-264619.8064000001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C159" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D159" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E159" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>20</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-264619.8064000001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C160" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D160" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E160" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1960.7926</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-266580.5990000001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C161" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D161" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E161" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F161" t="n">
-        <v>10</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-266580.5990000001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D162" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F162" t="n">
-        <v>41017.6023</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-307598.2013000001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C163" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D163" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E163" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F163" t="n">
-        <v>21</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-307577.2013000001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C164" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D164" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E164" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F164" t="n">
-        <v>10</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-307587.2013000001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F165" t="n">
-        <v>100</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-307687.2013000001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>100</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-307687.2013000001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C167" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D167" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E167" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1796.607</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-307687.2013000001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C168" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D168" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E168" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F168" t="n">
-        <v>858.7329999999999</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-307687.2013000001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C169" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D169" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E169" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F169" t="n">
-        <v>70</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-307687.2013000001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C170" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D170" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E170" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F170" t="n">
-        <v>48342.9742</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-259344.2271000001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C171" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D171" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E171" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>23909.3176</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-283253.5447000001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C172" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D172" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E172" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F172" t="n">
-        <v>90397.4488</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-373650.9935000001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F173" t="n">
-        <v>882.4199</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-372768.5736000001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C174" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D174" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E174" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F174" t="n">
-        <v>10</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-372778.5736000001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-372768.5736000001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
+      <c r="N133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-02 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>27.1</v>
       </c>
       <c r="F2" t="n">
-        <v>18885.9131</v>
+        <v>1753.7221</v>
       </c>
       <c r="G2" t="n">
-        <v>-289258.8958000001</v>
+        <v>78581.1005999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>27.1</v>
       </c>
       <c r="F3" t="n">
-        <v>17524</v>
+        <v>42800.6923</v>
       </c>
       <c r="G3" t="n">
-        <v>-289258.8958000001</v>
+        <v>78581.1005999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C4" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E4" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F4" t="n">
-        <v>35100</v>
+        <v>35870.9945</v>
       </c>
       <c r="G4" t="n">
-        <v>-254158.8958000001</v>
+        <v>114452.0950999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>27.3</v>
       </c>
       <c r="F5" t="n">
-        <v>7900</v>
+        <v>9630.9157</v>
       </c>
       <c r="G5" t="n">
-        <v>-246258.8958000001</v>
+        <v>114452.0950999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C6" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D6" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E6" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F6" t="n">
-        <v>2900</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>-246258.8958000001</v>
+        <v>114352.0950999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -621,19 +621,19 @@
         <v>27.3</v>
       </c>
       <c r="C7" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D7" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E7" t="n">
         <v>27.3</v>
       </c>
       <c r="F7" t="n">
-        <v>87266</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>-158992.8958000001</v>
+        <v>114362.0950999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -657,19 +657,19 @@
         <v>27.2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>27.2</v>
       </c>
       <c r="E8" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>6600</v>
+        <v>33746.2405</v>
       </c>
       <c r="G8" t="n">
-        <v>-165592.8958000001</v>
+        <v>80615.8545999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>27.3</v>
       </c>
       <c r="F9" t="n">
-        <v>8180</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>-157412.8958000001</v>
+        <v>80625.8545999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C10" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D10" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E10" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1898.1989</v>
+        <v>32570.0202</v>
       </c>
       <c r="G10" t="n">
-        <v>-159311.0947</v>
+        <v>80625.8545999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C11" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D11" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E11" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F11" t="n">
-        <v>35908.672</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>-195219.7667</v>
+        <v>80635.8545999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-195209.7667</v>
+        <v>80625.8545999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -837,19 +837,19 @@
         <v>27.3</v>
       </c>
       <c r="C13" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D13" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E13" t="n">
         <v>27.3</v>
       </c>
       <c r="F13" t="n">
-        <v>23952.6623</v>
+        <v>7900</v>
       </c>
       <c r="G13" t="n">
-        <v>-195209.7667</v>
+        <v>88525.8545999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C14" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D14" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E14" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>32488.5952</v>
       </c>
       <c r="G14" t="n">
-        <v>-195199.7667</v>
+        <v>56037.25939999991</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C15" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D15" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E15" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F15" t="n">
-        <v>19373.6496</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-195199.7667</v>
+        <v>56047.25939999991</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D16" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E16" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2000</v>
+        <v>3069.913</v>
       </c>
       <c r="G16" t="n">
-        <v>-195199.7667</v>
+        <v>56047.25939999991</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D17" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E17" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F17" t="n">
-        <v>6616.3776</v>
+        <v>14400</v>
       </c>
       <c r="G17" t="n">
-        <v>-195199.7667</v>
+        <v>41647.25939999991</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D18" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E18" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F18" t="n">
-        <v>19293.2642</v>
+        <v>1829.0228</v>
       </c>
       <c r="G18" t="n">
-        <v>-175906.5025</v>
+        <v>41647.25939999991</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C19" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D19" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E19" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F19" t="n">
-        <v>21725.1739</v>
+        <v>7796.2745</v>
       </c>
       <c r="G19" t="n">
-        <v>-197631.6764</v>
+        <v>33850.98489999991</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C20" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D20" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E20" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F20" t="n">
-        <v>6089.1131</v>
+        <v>68</v>
       </c>
       <c r="G20" t="n">
-        <v>-197631.6764</v>
+        <v>33918.98489999991</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C21" t="n">
         <v>27.3</v>
@@ -1131,13 +1131,13 @@
         <v>27.3</v>
       </c>
       <c r="E21" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F21" t="n">
-        <v>10751</v>
+        <v>40932</v>
       </c>
       <c r="G21" t="n">
-        <v>-208382.6764</v>
+        <v>33918.98489999991</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C22" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D22" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E22" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F22" t="n">
-        <v>22600</v>
+        <v>1382</v>
       </c>
       <c r="G22" t="n">
-        <v>-185782.6764</v>
+        <v>33918.98489999991</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>27.3</v>
       </c>
       <c r="F23" t="n">
-        <v>35.7568</v>
+        <v>1000</v>
       </c>
       <c r="G23" t="n">
-        <v>-185818.4332</v>
+        <v>33918.98489999991</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C24" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E24" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>9588</v>
+        <v>42948</v>
       </c>
       <c r="G24" t="n">
-        <v>-176230.4332</v>
+        <v>-9029.015100000091</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C25" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D25" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E25" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F25" t="n">
-        <v>83167</v>
+        <v>10100</v>
       </c>
       <c r="G25" t="n">
-        <v>-176230.4332</v>
+        <v>1070.984899999909</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C26" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D26" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E26" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="F26" t="n">
-        <v>17800</v>
+        <v>29700</v>
       </c>
       <c r="G26" t="n">
-        <v>-158430.4332</v>
+        <v>1070.984899999909</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>5400</v>
+        <v>3062.2382</v>
       </c>
       <c r="G27" t="n">
-        <v>-158430.4332</v>
+        <v>-1991.253300000091</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F28" t="n">
-        <v>22.7009</v>
+        <v>35671.342</v>
       </c>
       <c r="G28" t="n">
-        <v>-158430.4332</v>
+        <v>-1991.253300000091</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C29" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="D29" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E29" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F29" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G29" t="n">
-        <v>-157930.4332</v>
+        <v>1008.746699999909</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C30" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D30" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E30" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F30" t="n">
-        <v>25065.2158</v>
+        <v>1583.138686131387</v>
       </c>
       <c r="G30" t="n">
-        <v>-132865.2174</v>
+        <v>1008.746699999909</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C31" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="D31" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E31" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F31" t="n">
-        <v>588.7641</v>
+        <v>17990.7664</v>
       </c>
       <c r="G31" t="n">
-        <v>-133453.9815</v>
+        <v>1008.746699999909</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C32" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D32" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E32" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F32" t="n">
-        <v>2059</v>
+        <v>4363.6392</v>
       </c>
       <c r="G32" t="n">
-        <v>-131394.9815</v>
+        <v>1008.746699999909</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C33" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D33" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E33" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F33" t="n">
-        <v>63400</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>-131394.9815</v>
+        <v>1048.746699999909</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="C34" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D34" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E34" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F34" t="n">
-        <v>32659.75</v>
+        <v>4794.5726</v>
       </c>
       <c r="G34" t="n">
-        <v>-131394.9815</v>
+        <v>-3745.825900000092</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="C35" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D35" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E35" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="F35" t="n">
-        <v>1409.8214</v>
+        <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>-129985.1601</v>
+        <v>-3705.825900000092</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D36" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E36" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F36" t="n">
-        <v>74609.68610000001</v>
+        <v>10807.4816</v>
       </c>
       <c r="G36" t="n">
-        <v>-129985.1601</v>
+        <v>-3705.825900000092</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="C37" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D37" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="E37" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F37" t="n">
-        <v>1040</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-131025.1601</v>
+        <v>-3715.825900000092</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C38" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D38" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E38" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F38" t="n">
-        <v>3800.1499</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>-134825.31</v>
+        <v>-3725.825900000092</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C39" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D39" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E39" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>5501.529</v>
       </c>
       <c r="G39" t="n">
-        <v>-134815.31</v>
+        <v>-9227.354900000093</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C40" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="D40" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E40" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="F40" t="n">
-        <v>6400</v>
+        <v>1579.1809</v>
       </c>
       <c r="G40" t="n">
-        <v>-141215.31</v>
+        <v>-9227.354900000093</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C41" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="D41" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E41" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="F41" t="n">
-        <v>8600</v>
+        <v>1000</v>
       </c>
       <c r="G41" t="n">
-        <v>-141215.31</v>
+        <v>-9227.354900000093</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C42" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D42" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E42" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F42" t="n">
-        <v>225488.7964</v>
+        <v>35.8823</v>
       </c>
       <c r="G42" t="n">
-        <v>-141215.31</v>
+        <v>-9191.472600000094</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C43" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D43" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E43" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F43" t="n">
-        <v>8691.758</v>
+        <v>964.1177</v>
       </c>
       <c r="G43" t="n">
-        <v>-149907.068</v>
+        <v>-9191.472600000094</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C44" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D44" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E44" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>9035.882299999999</v>
       </c>
       <c r="G44" t="n">
-        <v>-149897.068</v>
+        <v>-9191.472600000094</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C45" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D45" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E45" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F45" t="n">
-        <v>1406.2968</v>
+        <v>97832.65850000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-151303.3648</v>
+        <v>-107024.1311000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C46" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E46" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="F46" t="n">
-        <v>23823.5192</v>
+        <v>9786.326800000001</v>
       </c>
       <c r="G46" t="n">
-        <v>-127479.8456</v>
+        <v>-116810.4579000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C47" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D47" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E47" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F47" t="n">
-        <v>3865.2932</v>
+        <v>1871.9412</v>
       </c>
       <c r="G47" t="n">
-        <v>-131345.1388</v>
+        <v>-114938.5167000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="E48" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="F48" t="n">
-        <v>10661.3525</v>
+        <v>19200</v>
       </c>
       <c r="G48" t="n">
-        <v>-131345.1388</v>
+        <v>-134138.5167000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C49" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D49" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E49" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F49" t="n">
-        <v>118485.5596</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>-249830.6984000001</v>
+        <v>-134128.5167000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C50" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E50" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F50" t="n">
-        <v>33571.3254</v>
+        <v>28927.7509</v>
       </c>
       <c r="G50" t="n">
-        <v>-283402.0238000001</v>
+        <v>-163056.2676000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C51" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="E51" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F51" t="n">
-        <v>17335.8794</v>
+        <v>41839.5571</v>
       </c>
       <c r="G51" t="n">
-        <v>-266066.1444000001</v>
+        <v>-163056.2676000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,35 +2238,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="C52" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="D52" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="E52" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="F52" t="n">
-        <v>2031.0653</v>
+        <v>22000</v>
       </c>
       <c r="G52" t="n">
-        <v>-266066.1444000001</v>
+        <v>-163056.2676000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K52" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
@@ -2278,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C53" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D53" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E53" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F53" t="n">
-        <v>27124.7375</v>
+        <v>9034.5209</v>
       </c>
       <c r="G53" t="n">
-        <v>-293190.8819000001</v>
+        <v>-172090.7885000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2302,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2320,40 +2310,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C54" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D54" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E54" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F54" t="n">
-        <v>14084.2124</v>
+        <v>77813.2205</v>
       </c>
       <c r="G54" t="n">
-        <v>-293190.8819000001</v>
+        <v>-172090.7885000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K54" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2364,35 +2346,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C55" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D55" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E55" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F55" t="n">
-        <v>7000</v>
+        <v>27823.9204</v>
       </c>
       <c r="G55" t="n">
-        <v>-293190.8819000001</v>
+        <v>-172090.7885000001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K55" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2404,40 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C56" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D56" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E56" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F56" t="n">
-        <v>12963.9999</v>
+        <v>1116.9144</v>
       </c>
       <c r="G56" t="n">
-        <v>-293190.8819000001</v>
+        <v>-172090.7885000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K56" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2448,40 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C57" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D57" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E57" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F57" t="n">
-        <v>11582.2102</v>
+        <v>1808.2998</v>
       </c>
       <c r="G57" t="n">
-        <v>-293190.8819000001</v>
+        <v>-172090.7885000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K57" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2492,35 +2454,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C58" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D58" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E58" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F58" t="n">
-        <v>9604.2912</v>
+        <v>3833</v>
       </c>
       <c r="G58" t="n">
-        <v>-293190.8819000001</v>
+        <v>-168257.7885000001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K58" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2535,37 +2493,29 @@
         <v>27.2</v>
       </c>
       <c r="C59" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D59" t="n">
         <v>27.2</v>
       </c>
       <c r="E59" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F59" t="n">
-        <v>42933.1122</v>
+        <v>7881.3308</v>
       </c>
       <c r="G59" t="n">
-        <v>-336123.9941000001</v>
+        <v>-168257.7885000001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2576,40 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C60" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D60" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E60" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="F60" t="n">
-        <v>2442.6187</v>
+        <v>7318.5127</v>
       </c>
       <c r="G60" t="n">
-        <v>-333681.3754000001</v>
+        <v>-160939.2758000001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K60" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2620,40 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C61" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D61" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E61" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F61" t="n">
-        <v>19497</v>
+        <v>63321.3636</v>
       </c>
       <c r="G61" t="n">
-        <v>-314184.3754000001</v>
+        <v>-160939.2758000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2664,40 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="C62" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="D62" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="E62" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="F62" t="n">
-        <v>7287.1636</v>
+        <v>3227.905</v>
       </c>
       <c r="G62" t="n">
-        <v>-314184.3754000001</v>
+        <v>-164167.1808000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K62" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2708,40 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C63" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D63" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E63" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F63" t="n">
-        <v>3964.7432</v>
+        <v>90</v>
       </c>
       <c r="G63" t="n">
-        <v>-314184.3754000001</v>
+        <v>-164077.1808000001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K63" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2752,40 +2670,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C64" t="n">
         <v>27.4</v>
       </c>
       <c r="D64" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E64" t="n">
         <v>27.4</v>
       </c>
       <c r="F64" t="n">
-        <v>3376.8789</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-314184.3754000001</v>
+        <v>-164067.1808000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2796,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C65" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D65" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E65" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F65" t="n">
-        <v>46587.0745</v>
+        <v>25713.3522</v>
       </c>
       <c r="G65" t="n">
-        <v>-314184.3754000001</v>
+        <v>-189780.5330000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2820,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2838,40 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C66" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D66" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E66" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F66" t="n">
-        <v>9375.844800000001</v>
+        <v>1759.1752</v>
       </c>
       <c r="G66" t="n">
-        <v>-314184.3754000001</v>
+        <v>-189780.5330000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K66" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2882,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C67" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D67" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E67" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F67" t="n">
-        <v>9936.7816</v>
+        <v>643.1135</v>
       </c>
       <c r="G67" t="n">
-        <v>-314184.3754000001</v>
+        <v>-189780.5330000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2906,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2924,40 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C68" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D68" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E68" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F68" t="n">
-        <v>5259.1263</v>
+        <v>43210.8471</v>
       </c>
       <c r="G68" t="n">
-        <v>-314184.3754000001</v>
+        <v>-232991.3801000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K68" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2968,40 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C69" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D69" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E69" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F69" t="n">
-        <v>10035.0976</v>
+        <v>24593.1517</v>
       </c>
       <c r="G69" t="n">
-        <v>-314184.3754000001</v>
+        <v>-257584.5318000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K69" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3012,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C70" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D70" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E70" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F70" t="n">
-        <v>78171.17110000001</v>
+        <v>1835.9674</v>
       </c>
       <c r="G70" t="n">
-        <v>-314184.3754000001</v>
+        <v>-255748.5644000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3036,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3054,40 +2922,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C71" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D71" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E71" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F71" t="n">
-        <v>16818.7826</v>
+        <v>15004.4183</v>
       </c>
       <c r="G71" t="n">
-        <v>-314184.3754000001</v>
+        <v>-270752.9827000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K71" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3098,40 +2958,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C72" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D72" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E72" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F72" t="n">
-        <v>3778.4091</v>
+        <v>380</v>
       </c>
       <c r="G72" t="n">
-        <v>-314184.3754000001</v>
+        <v>-270372.9827000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K72" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3142,40 +2994,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C73" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D73" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E73" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>18885.9131</v>
       </c>
       <c r="G73" t="n">
-        <v>-314174.3754000001</v>
+        <v>-289258.8958000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K73" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3186,40 +3030,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C74" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D74" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E74" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F74" t="n">
-        <v>5929.1998</v>
+        <v>17524</v>
       </c>
       <c r="G74" t="n">
-        <v>-320103.5752000001</v>
+        <v>-289258.8958000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K74" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3230,40 +3066,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C75" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D75" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E75" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F75" t="n">
-        <v>16904.4151</v>
+        <v>35100</v>
       </c>
       <c r="G75" t="n">
-        <v>-337007.9903000001</v>
+        <v>-254158.8958000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K75" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3286,28 +3114,20 @@
         <v>27.3</v>
       </c>
       <c r="F76" t="n">
-        <v>1301.1475</v>
+        <v>7900</v>
       </c>
       <c r="G76" t="n">
-        <v>-337007.9903000001</v>
+        <v>-246258.8958000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K76" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3330,28 +3150,20 @@
         <v>27.3</v>
       </c>
       <c r="F77" t="n">
-        <v>15718.7765</v>
+        <v>2900</v>
       </c>
       <c r="G77" t="n">
-        <v>-337007.9903000001</v>
+        <v>-246258.8958000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K77" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3365,37 +3177,29 @@
         <v>27.3</v>
       </c>
       <c r="C78" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D78" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E78" t="n">
         <v>27.3</v>
       </c>
       <c r="F78" t="n">
-        <v>3755.7862</v>
+        <v>87266</v>
       </c>
       <c r="G78" t="n">
-        <v>-337007.9903000001</v>
+        <v>-158992.8958000001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K78" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3406,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C79" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D79" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E79" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F79" t="n">
-        <v>682.5018</v>
+        <v>6600</v>
       </c>
       <c r="G79" t="n">
-        <v>-337007.9903000001</v>
+        <v>-165592.8958000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3430,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3460,10 +3258,10 @@
         <v>27.3</v>
       </c>
       <c r="F80" t="n">
-        <v>8474</v>
+        <v>8180</v>
       </c>
       <c r="G80" t="n">
-        <v>-337007.9903000001</v>
+        <v>-157412.8958000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3472,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3490,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C81" t="n">
         <v>27.2</v>
       </c>
       <c r="D81" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E81" t="n">
         <v>27.2</v>
       </c>
       <c r="F81" t="n">
-        <v>3726.37</v>
+        <v>1898.1989</v>
       </c>
       <c r="G81" t="n">
-        <v>-340734.3603000001</v>
+        <v>-159311.0947</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3514,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3532,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C82" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D82" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E82" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F82" t="n">
-        <v>8402.567300000001</v>
+        <v>35908.672</v>
       </c>
       <c r="G82" t="n">
-        <v>-332331.7930000001</v>
+        <v>-195219.7667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3556,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3586,10 +3366,10 @@
         <v>27.3</v>
       </c>
       <c r="F83" t="n">
-        <v>13503.9765</v>
+        <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>-332331.7930000001</v>
+        <v>-195209.7667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3598,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3628,10 +3402,10 @@
         <v>27.3</v>
       </c>
       <c r="F84" t="n">
-        <v>1532.9071</v>
+        <v>23952.6623</v>
       </c>
       <c r="G84" t="n">
-        <v>-332331.7930000001</v>
+        <v>-195209.7667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3640,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3658,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C85" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D85" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E85" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F85" t="n">
-        <v>14600</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>-346931.7930000001</v>
+        <v>-195199.7667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3682,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3700,40 +3462,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C86" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D86" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E86" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F86" t="n">
-        <v>1659</v>
+        <v>19373.6496</v>
       </c>
       <c r="G86" t="n">
-        <v>-345272.7930000001</v>
+        <v>-195199.7667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K86" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3744,40 +3498,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C87" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D87" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E87" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F87" t="n">
-        <v>5830.9069</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="n">
-        <v>-345272.7930000001</v>
+        <v>-195199.7667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K87" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3788,40 +3534,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C88" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D88" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E88" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F88" t="n">
-        <v>37632.139</v>
+        <v>6616.3776</v>
       </c>
       <c r="G88" t="n">
-        <v>-382904.9320000001</v>
+        <v>-195199.7667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K88" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3832,40 +3570,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C89" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D89" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E89" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F89" t="n">
-        <v>8769.0931</v>
+        <v>19293.2642</v>
       </c>
       <c r="G89" t="n">
-        <v>-374135.8389000001</v>
+        <v>-175906.5025</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K89" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3876,40 +3606,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C90" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D90" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E90" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>21725.1739</v>
       </c>
       <c r="G90" t="n">
-        <v>-374125.8389000001</v>
+        <v>-197631.6764</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K90" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3932,28 +3654,20 @@
         <v>27.4</v>
       </c>
       <c r="F91" t="n">
-        <v>4903.6038</v>
+        <v>6089.1131</v>
       </c>
       <c r="G91" t="n">
-        <v>-379029.4427000001</v>
+        <v>-197631.6764</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K91" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3964,40 +3678,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C92" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D92" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E92" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>10751</v>
       </c>
       <c r="G92" t="n">
-        <v>-379019.4427000001</v>
+        <v>-208382.6764</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K92" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4008,40 +3714,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C93" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="D93" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E93" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>22600</v>
       </c>
       <c r="G93" t="n">
-        <v>-379029.4427000001</v>
+        <v>-185782.6764</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K93" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4052,40 +3750,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C94" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D94" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E94" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F94" t="n">
-        <v>15810</v>
+        <v>35.7568</v>
       </c>
       <c r="G94" t="n">
-        <v>-379029.4427000001</v>
+        <v>-185818.4332</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K94" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4096,40 +3786,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C95" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D95" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E95" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F95" t="n">
-        <v>70</v>
+        <v>9588</v>
       </c>
       <c r="G95" t="n">
-        <v>-378959.4427000001</v>
+        <v>-176230.4332</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4140,40 +3822,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C96" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D96" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E96" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F96" t="n">
-        <v>2188.4025</v>
+        <v>83167</v>
       </c>
       <c r="G96" t="n">
-        <v>-378959.4427000001</v>
+        <v>-176230.4332</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K96" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4184,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C97" t="n">
         <v>27.6</v>
       </c>
-      <c r="C97" t="n">
-        <v>27.7</v>
-      </c>
       <c r="D97" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E97" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F97" t="n">
-        <v>400</v>
+        <v>17800</v>
       </c>
       <c r="G97" t="n">
-        <v>-378559.4427000001</v>
+        <v>-158430.4332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4208,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4226,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C98" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D98" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E98" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F98" t="n">
-        <v>1323.7978</v>
+        <v>5400</v>
       </c>
       <c r="G98" t="n">
-        <v>-378559.4427000001</v>
+        <v>-158430.4332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4250,14 +3918,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4271,35 +3933,29 @@
         <v>27.6</v>
       </c>
       <c r="C99" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D99" t="n">
         <v>27.6</v>
       </c>
       <c r="E99" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>22.7009</v>
       </c>
       <c r="G99" t="n">
-        <v>-378579.4427000001</v>
+        <v>-158430.4332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4310,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C100" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D100" t="n">
         <v>27.7</v>
       </c>
       <c r="E100" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F100" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G100" t="n">
-        <v>-378549.4427000001</v>
+        <v>-157930.4332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4334,14 +3990,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4352,38 +4002,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C101" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D101" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E101" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>25065.2158</v>
       </c>
       <c r="G101" t="n">
-        <v>-378569.4427000001</v>
+        <v>-132865.2174</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4394,40 +4038,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C102" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D102" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E102" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F102" t="n">
-        <v>60</v>
+        <v>588.7641</v>
       </c>
       <c r="G102" t="n">
-        <v>-378509.4427000001</v>
+        <v>-133453.9815</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4438,40 +4074,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C103" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D103" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E103" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>2059</v>
       </c>
       <c r="G103" t="n">
-        <v>-378549.4427000001</v>
+        <v>-131394.9815</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K103" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4482,40 +4110,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C104" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D104" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E104" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>63400</v>
       </c>
       <c r="G104" t="n">
-        <v>-378549.4427000001</v>
+        <v>-131394.9815</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4526,40 +4146,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C105" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D105" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="E105" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F105" t="n">
-        <v>3587.5181</v>
+        <v>32659.75</v>
       </c>
       <c r="G105" t="n">
-        <v>-374961.9246000001</v>
+        <v>-131394.9815</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K105" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4570,38 +4182,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="C106" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="D106" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="E106" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>1409.8214</v>
       </c>
       <c r="G106" t="n">
-        <v>-374981.9246000001</v>
+        <v>-129985.1601</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4612,38 +4218,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C107" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="D107" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E107" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F107" t="n">
-        <v>39499.0397</v>
+        <v>74609.68610000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-374981.9246000001</v>
+        <v>-129985.1601</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4654,38 +4254,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="C108" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D108" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="E108" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>1040</v>
       </c>
       <c r="G108" t="n">
-        <v>-374971.9246000001</v>
+        <v>-131025.1601</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4699,35 +4293,29 @@
         <v>27.8</v>
       </c>
       <c r="C109" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D109" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E109" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F109" t="n">
-        <v>15300</v>
+        <v>3800.1499</v>
       </c>
       <c r="G109" t="n">
-        <v>-359671.9246000001</v>
+        <v>-134825.31</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4738,40 +4326,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C110" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="D110" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E110" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>-359651.9246000001</v>
+        <v>-134815.31</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>1.020641025641026</v>
+        <v>1</v>
       </c>
       <c r="N110" t="inlineStr"/>
     </row>
@@ -4780,28 +4362,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C111" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D111" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E111" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>6400</v>
       </c>
       <c r="G111" t="n">
-        <v>-359671.9246000001</v>
+        <v>-141215.31</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4828,16 +4410,16 @@
         <v>27.5</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>8600</v>
       </c>
       <c r="G112" t="n">
-        <v>-359681.9246000001</v>
+        <v>-141215.31</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4855,25 +4437,25 @@
         <v>27.5</v>
       </c>
       <c r="C113" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D113" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E113" t="n">
         <v>27.5</v>
       </c>
       <c r="F113" t="n">
-        <v>90</v>
+        <v>225488.7964</v>
       </c>
       <c r="G113" t="n">
-        <v>-359591.9246000001</v>
+        <v>-141215.31</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4888,28 +4470,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C114" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D114" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E114" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>8691.758</v>
       </c>
       <c r="G114" t="n">
-        <v>-359601.9246000001</v>
+        <v>-149907.068</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4924,28 +4506,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C115" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="D115" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="E115" t="n">
         <v>27.5</v>
       </c>
       <c r="F115" t="n">
-        <v>95002.1182</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>-264599.8064000001</v>
+        <v>-149897.068</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4960,28 +4542,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C116" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D116" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E116" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>1406.2968</v>
       </c>
       <c r="G116" t="n">
-        <v>-264619.8064000001</v>
+        <v>-151303.3648</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4996,28 +4578,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C117" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D117" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E117" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>23823.5192</v>
       </c>
       <c r="G117" t="n">
-        <v>-264619.8064000001</v>
+        <v>-127479.8456</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5032,28 +4614,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C118" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D118" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E118" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F118" t="n">
-        <v>1960.7926</v>
+        <v>3865.2932</v>
       </c>
       <c r="G118" t="n">
-        <v>-266580.5990000001</v>
+        <v>-131345.1388</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5068,28 +4650,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C119" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D119" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E119" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>10661.3525</v>
       </c>
       <c r="G119" t="n">
-        <v>-266580.5990000001</v>
+        <v>-131345.1388</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5104,28 +4686,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C120" t="n">
         <v>27.3</v>
       </c>
       <c r="D120" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E120" t="n">
         <v>27.3</v>
       </c>
       <c r="F120" t="n">
-        <v>41017.6023</v>
+        <v>118485.5596</v>
       </c>
       <c r="G120" t="n">
-        <v>-307598.2013000001</v>
+        <v>-249830.6984000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5140,28 +4722,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C121" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D121" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E121" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F121" t="n">
-        <v>21</v>
+        <v>33571.3254</v>
       </c>
       <c r="G121" t="n">
-        <v>-307577.2013000001</v>
+        <v>-283402.0238000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5176,7 +4758,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C122" t="n">
         <v>27.4</v>
@@ -5185,19 +4767,19 @@
         <v>27.4</v>
       </c>
       <c r="E122" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>17335.8794</v>
       </c>
       <c r="G122" t="n">
-        <v>-307587.2013000001</v>
+        <v>-266066.1444000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5212,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C123" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D123" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E123" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F123" t="n">
-        <v>100</v>
+        <v>2031.0653</v>
       </c>
       <c r="G123" t="n">
-        <v>-307687.2013000001</v>
+        <v>-266066.1444000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5260,10 +4842,10 @@
         <v>27.3</v>
       </c>
       <c r="F124" t="n">
-        <v>100</v>
+        <v>27124.7375</v>
       </c>
       <c r="G124" t="n">
-        <v>-307687.2013000001</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5284,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C125" t="n">
         <v>27.3</v>
       </c>
       <c r="D125" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E125" t="n">
         <v>27.3</v>
       </c>
       <c r="F125" t="n">
-        <v>1796.607</v>
+        <v>14084.2124</v>
       </c>
       <c r="G125" t="n">
-        <v>-307687.2013000001</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5320,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C126" t="n">
         <v>27.3</v>
       </c>
       <c r="D126" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E126" t="n">
         <v>27.3</v>
       </c>
       <c r="F126" t="n">
-        <v>858.7329999999999</v>
+        <v>7000</v>
       </c>
       <c r="G126" t="n">
-        <v>-307687.2013000001</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5368,19 +4950,23 @@
         <v>27.3</v>
       </c>
       <c r="F127" t="n">
-        <v>70</v>
+        <v>12963.9999</v>
       </c>
       <c r="G127" t="n">
-        <v>-307687.2013000001</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K127" t="n">
+        <v>27.3</v>
+      </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
@@ -5392,32 +4978,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C128" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D128" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E128" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F128" t="n">
-        <v>48342.9742</v>
+        <v>11582.2102</v>
       </c>
       <c r="G128" t="n">
-        <v>-259344.2271000001</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K128" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5428,32 +5022,40 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C129" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D129" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E129" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F129" t="n">
-        <v>23909.3176</v>
+        <v>9604.2912</v>
       </c>
       <c r="G129" t="n">
-        <v>-283253.5447000001</v>
+        <v>-293190.8819000001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K129" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5464,32 +5066,40 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="C130" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D130" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E130" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F130" t="n">
-        <v>90397.4488</v>
+        <v>42933.1122</v>
       </c>
       <c r="G130" t="n">
-        <v>-373650.9935000001</v>
+        <v>-336123.9941000001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K130" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5500,32 +5110,40 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C131" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D131" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E131" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F131" t="n">
-        <v>882.4199</v>
+        <v>2442.6187</v>
       </c>
       <c r="G131" t="n">
-        <v>-372768.5736000001</v>
+        <v>-333681.3754000001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5536,32 +5154,40 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C132" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D132" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E132" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>19497</v>
       </c>
       <c r="G132" t="n">
-        <v>-372778.5736000001</v>
+        <v>-314184.3754000001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K132" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5572,36 +5198,3078 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C133" t="n">
         <v>27.4</v>
       </c>
       <c r="D133" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E133" t="n">
         <v>27.4</v>
       </c>
       <c r="F133" t="n">
+        <v>7287.1636</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K133" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3964.7432</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3376.8789</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K135" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D136" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>46587.0745</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K136" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9375.844800000001</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K137" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9936.7816</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D139" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5259.1263</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10035.0976</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>78171.17110000001</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K141" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16818.7826</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K142" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3778.4091</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-314184.3754000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K143" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F144" t="n">
         <v>10</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G144" t="n">
+        <v>-314174.3754000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K144" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5929.1998</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-320103.5752000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16904.4151</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-337007.9903000001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E147" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1301.1475</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-337007.9903000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>15718.7765</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-337007.9903000001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3755.7862</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-337007.9903000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>682.5018</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-337007.9903000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K150" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8474</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-337007.9903000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3726.37</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-340734.3603000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K152" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8402.567300000001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-332331.7930000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K153" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>13503.9765</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-332331.7930000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K154" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1532.9071</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-332331.7930000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>14600</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-346931.7930000001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K156" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1659</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-345272.7930000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K157" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5830.9069</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-345272.7930000001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>37632.139</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-382904.9320000001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8769.0931</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-374135.8389000001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C161" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E161" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-374125.8389000001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4903.6038</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-379029.4427000001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C163" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>10</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-379019.4427000001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-379029.4427000001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>15810</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-379029.4427000001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>70</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-378959.4427000001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C167" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E167" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2188.4025</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-378959.4427000001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>400</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-378559.4427000001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1323.7978</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-378559.4427000001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>20</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-378579.4427000001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F171" t="n">
+        <v>30</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-378549.4427000001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-378569.4427000001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F173" t="n">
+        <v>60</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-378509.4427000001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K173" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C174" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>40</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-378549.4427000001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-378549.4427000001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K175" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3587.5181</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-374961.9246000001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D177" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-374981.9246000001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C178" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D178" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F178" t="n">
+        <v>39499.0397</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-374981.9246000001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>10</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-374971.9246000001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K179" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>15300</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-359671.9246000001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>28</v>
+      </c>
+      <c r="D181" t="n">
+        <v>28</v>
+      </c>
+      <c r="E181" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>20</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-359651.9246000001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F182" t="n">
+        <v>20</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-359671.9246000001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>10</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-359681.9246000001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C184" t="n">
+        <v>28</v>
+      </c>
+      <c r="D184" t="n">
+        <v>28</v>
+      </c>
+      <c r="E184" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>90</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-359591.9246000001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>10</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-359601.9246000001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D186" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>95002.1182</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-264599.8064000001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-264619.8064000001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>20</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-264619.8064000001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C189" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1960.7926</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-266580.5990000001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>10</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-266580.5990000001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>41017.6023</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-307598.2013000001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D192" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E192" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F192" t="n">
+        <v>21</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-307577.2013000001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C193" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-307587.2013000001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E194" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>100</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-307687.2013000001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E195" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>100</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-307687.2013000001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C196" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D196" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1796.607</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-307687.2013000001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F197" t="n">
+        <v>858.7329999999999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-307687.2013000001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D198" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E198" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>70</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-307687.2013000001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D199" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E199" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F199" t="n">
+        <v>48342.9742</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-259344.2271000001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C200" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>23909.3176</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-283253.5447000001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C201" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D201" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E201" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F201" t="n">
+        <v>90397.4488</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-373650.9935000001</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>882.4199</v>
+      </c>
+      <c r="G202" t="n">
         <v>-372768.5736000001</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C203" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D203" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E203" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F203" t="n">
+        <v>10</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-372778.5736000001</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C204" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D204" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E204" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-372768.5736000001</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-02 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,19 @@
         <v>-9191.472600000094</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1810,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1849,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1888,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1921,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1954,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1987,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2020,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2053,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2086,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2119,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2150,21 @@
         <v>-172090.7885000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2189,21 @@
         <v>-172090.7885000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2228,21 @@
         <v>-172090.7885000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2269,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2304,21 @@
         <v>-172090.7885000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2345,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2380,21 @@
         <v>-168257.7885000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2419,21 @@
         <v>-160939.2758000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2460,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2495,19 @@
         <v>-164167.1808000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2534,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2571,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2608,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2645,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2682,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2719,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2756,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2793,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2830,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2867,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2904,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2941,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2978,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3015,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3052,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3089,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3126,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3161,19 @@
         <v>-157412.8958000001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3198,19 @@
         <v>-159311.0947</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3237,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3272,19 @@
         <v>-195209.7667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3309,19 @@
         <v>-195209.7667</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3348,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3385,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3422,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3459,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3496,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3533,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3570,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3605,19 @@
         <v>-208382.6764</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3642,19 @@
         <v>-185782.6764</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3679,19 @@
         <v>-185818.4332</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3718,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3755,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3792,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3829,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3866,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3903,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3940,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3977,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4014,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4051,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4088,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +4123,17 @@
         <v>-129985.1601</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +4158,15 @@
         <v>-129985.1601</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +4191,15 @@
         <v>-131025.1601</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +4224,15 @@
         <v>-134825.31</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4257,15 @@
         <v>-134815.31</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4290,15 @@
         <v>-141215.31</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4325,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4358,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4391,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4424,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4455,15 @@
         <v>-151303.3648</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4490,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4523,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4556,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4589,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4622,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4653,15 @@
         <v>-266066.1444000001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4688,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4721,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4754,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4785,15 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,20 +4820,13 @@
       <c r="H127" t="n">
         <v>1</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K127" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4998,24 +4853,13 @@
       <c r="H128" t="n">
         <v>1</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K128" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5040,26 +4884,15 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K129" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5086,24 +4919,13 @@
       <c r="H130" t="n">
         <v>1</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5130,24 +4952,13 @@
       <c r="H131" t="n">
         <v>1</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K131" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5174,24 +4985,13 @@
       <c r="H132" t="n">
         <v>1</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K132" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5216,26 +5016,15 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K133" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5260,24 +5049,15 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5304,24 +5084,13 @@
       <c r="H135" t="n">
         <v>1</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K135" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5346,26 +5115,15 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K136" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5390,26 +5148,15 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K137" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5434,26 +5181,15 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K138" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5478,26 +5214,15 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K139" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5522,26 +5247,15 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5566,26 +5280,15 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5610,26 +5313,15 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K142" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5654,26 +5346,15 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K143" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5698,26 +5379,15 @@
         <v>-314174.3754000001</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K144" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5744,22 +5414,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5786,22 +5447,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5826,26 +5478,15 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K147" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5870,26 +5511,15 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K148" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5914,26 +5544,15 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K149" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5958,26 +5577,15 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K150" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6002,26 +5610,15 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K151" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6048,24 +5645,13 @@
       <c r="H152" t="n">
         <v>1</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K152" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6090,26 +5676,15 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K153" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6134,26 +5709,15 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K154" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6178,26 +5742,15 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K155" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6222,26 +5775,15 @@
         <v>-346931.7930000001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K156" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6266,26 +5808,15 @@
         <v>-345272.7930000001</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K157" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6310,26 +5841,15 @@
         <v>-345272.7930000001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K158" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6354,26 +5874,15 @@
         <v>-382904.9320000001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6400,22 +5909,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6442,22 +5942,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6484,22 +5975,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6526,22 +6008,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6568,22 +6041,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6610,22 +6074,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6652,22 +6107,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6694,22 +6140,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6736,22 +6173,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6778,22 +6206,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6820,22 +6239,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6862,22 +6272,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6904,22 +6305,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6944,26 +6336,15 @@
         <v>-378509.4427000001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K173" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6990,22 +6371,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7030,26 +6402,15 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K175" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7076,22 +6437,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7118,22 +6470,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7160,22 +6503,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7200,26 +6534,15 @@
         <v>-374971.9246000001</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K179" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7246,22 +6569,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7288,22 +6602,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7330,22 +6635,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7372,22 +6668,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7414,22 +6701,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7456,22 +6734,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7498,22 +6767,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7540,22 +6800,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7582,22 +6833,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7624,22 +6866,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7666,22 +6899,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7708,22 +6932,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7750,22 +6965,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7792,22 +6998,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7834,22 +7031,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7876,22 +7064,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7918,22 +7097,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7960,22 +7130,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8002,22 +7163,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8044,22 +7196,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8086,22 +7229,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8128,22 +7262,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8170,22 +7295,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8212,22 +7328,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8254,24 +7361,15 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-02 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>78581.1005999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>78581.1005999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>114452.0950999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>114452.0950999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>114352.0950999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>114362.0950999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>80615.8545999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>80625.8545999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>80625.8545999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>80635.8545999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>80625.8545999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>88525.8545999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>56037.25939999991</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>56047.25939999991</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>56047.25939999991</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>41647.25939999991</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>41647.25939999991</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>33918.98489999991</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>33918.98489999991</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>33918.98489999991</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>33918.98489999991</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1070.984899999909</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3705.825900000092</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3705.825900000092</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1771,14 +1771,10 @@
         <v>-9191.472600000094</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1811,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1850,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2084,7 +2068,7 @@
         <v>-163056.2676000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2150,17 +2134,11 @@
         <v>-172090.7885000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2189,17 +2167,11 @@
         <v>-172090.7885000001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2228,17 +2200,11 @@
         <v>-172090.7885000001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2271,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2304,17 +2266,11 @@
         <v>-172090.7885000001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2347,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2380,17 +2332,11 @@
         <v>-168257.7885000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2419,17 +2365,11 @@
         <v>-160939.2758000001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2462,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2495,15 +2431,11 @@
         <v>-164167.1808000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2536,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2573,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2610,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2647,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2684,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2721,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2758,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2795,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2832,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2869,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2906,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2943,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2980,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3017,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3054,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3128,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3161,15 +3025,11 @@
         <v>-157412.8958000001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3198,15 +3058,11 @@
         <v>-159311.0947</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3239,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3272,15 +3124,11 @@
         <v>-195209.7667</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3309,15 +3157,11 @@
         <v>-195209.7667</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3350,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3387,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3424,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3461,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3498,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3535,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3572,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3605,15 +3421,11 @@
         <v>-208382.6764</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3642,15 +3454,11 @@
         <v>-185782.6764</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3679,15 +3487,11 @@
         <v>-185818.4332</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3720,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3757,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3794,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3831,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3868,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3905,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3942,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3979,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4016,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4053,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4090,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4123,16 +3883,14 @@
         <v>-129985.1601</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
       <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -4158,7 +3916,7 @@
         <v>-129985.1601</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4191,7 +3949,7 @@
         <v>-131025.1601</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4224,7 +3982,7 @@
         <v>-134825.31</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4257,7 +4015,7 @@
         <v>-134815.31</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4290,7 +4048,7 @@
         <v>-141215.31</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4455,7 +4213,7 @@
         <v>-151303.3648</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4653,7 +4411,7 @@
         <v>-266066.1444000001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4785,7 +4543,7 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4818,7 +4576,7 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4851,7 +4609,7 @@
         <v>-293190.8819000001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4917,7 +4675,7 @@
         <v>-336123.9941000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4950,7 +4708,7 @@
         <v>-333681.3754000001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4983,7 +4741,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5049,7 +4807,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5082,7 +4840,7 @@
         <v>-314184.3754000001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5643,7 +5401,7 @@
         <v>-340734.3603000001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6072,11 +5830,17 @@
         <v>-379029.4427000001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6109,7 +5873,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6138,11 +5906,17 @@
         <v>-378959.4427000001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6175,7 +5949,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6208,7 +5986,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6241,7 +6023,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6274,7 +6060,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6307,7 +6097,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6336,11 +6130,17 @@
         <v>-378509.4427000001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6369,11 +6169,17 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +6208,17 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6435,11 +6247,17 @@
         <v>-374961.9246000001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6468,11 +6286,17 @@
         <v>-374981.9246000001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6501,11 +6325,17 @@
         <v>-374981.9246000001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6534,11 +6364,17 @@
         <v>-374971.9246000001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6567,11 +6403,17 @@
         <v>-359671.9246000001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6604,7 +6446,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6637,7 +6483,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6670,7 +6520,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6699,11 +6553,17 @@
         <v>-359591.9246000001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6736,7 +6596,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6769,7 +6633,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6802,7 +6670,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6835,7 +6707,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6868,7 +6744,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6901,7 +6781,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6934,7 +6818,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6967,7 +6855,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7000,7 +6892,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7033,7 +6929,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7066,7 +6966,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7099,7 +7003,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7132,7 +7040,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7165,7 +7077,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7194,11 +7110,17 @@
         <v>-259344.2271000001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7231,7 +7153,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7264,7 +7190,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7297,7 +7227,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7330,7 +7264,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7363,13 +7301,17 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
       <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-02 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>78581.1005999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>78581.1005999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>114452.0950999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>80615.8545999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>80625.8545999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>80625.8545999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>80635.8545999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>80625.8545999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>88525.8545999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>56037.25939999991</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>56047.25939999991</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>56047.25939999991</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>41647.25939999991</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>41647.25939999991</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>33918.98489999991</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>33918.98489999991</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>33918.98489999991</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>33918.98489999991</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1070.984899999909</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3705.825900000092</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3705.825900000092</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-163056.2676000001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -5566,10 +5566,14 @@
         <v>-345272.7930000001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J157" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5599,11 +5603,19 @@
         <v>-345272.7930000001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J158" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5644,19 @@
         <v>-382904.9320000001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J159" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5685,19 @@
         <v>-374135.8389000001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +5729,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5768,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +5807,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +5846,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,15 +5882,15 @@
         <v>-379029.4427000001</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -5872,7 +5924,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,12 +5960,12 @@
         <v>-378959.4427000001</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5948,7 +6002,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5985,7 +6041,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6022,7 +6080,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6059,7 +6119,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6096,7 +6158,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6130,12 +6194,12 @@
         <v>-378509.4427000001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6169,12 +6233,12 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6208,12 +6272,12 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6247,12 +6311,12 @@
         <v>-374961.9246000001</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6286,12 +6350,12 @@
         <v>-374981.9246000001</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6325,12 +6389,12 @@
         <v>-374981.9246000001</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6364,12 +6428,12 @@
         <v>-374971.9246000001</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6403,12 +6467,12 @@
         <v>-359671.9246000001</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6445,7 +6509,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6482,7 +6548,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6519,7 +6587,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,12 +6623,12 @@
         <v>-359591.9246000001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6595,7 +6665,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6632,7 +6704,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6669,7 +6743,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6706,7 +6782,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6743,7 +6821,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6780,7 +6860,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6817,7 +6899,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6854,7 +6938,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6891,7 +6977,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6928,7 +7016,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6965,7 +7055,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7002,7 +7094,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7039,7 +7133,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7076,7 +7172,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7110,12 +7208,12 @@
         <v>-259344.2271000001</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7152,7 +7250,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7189,7 +7289,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7226,7 +7328,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7263,7 +7367,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7300,7 +7406,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7312,6 +7420,6 @@
       <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-02 BackTest LOOM.xlsx
@@ -550,7 +550,7 @@
         <v>114452.0950999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>114352.0950999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>114362.0950999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-131394.9815</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-129985.1601</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-129985.1601</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-131025.1601</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-134825.31</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-134815.31</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -5368,10 +5368,14 @@
         <v>-337007.9903000001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J151" t="n">
+        <v>27.3</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5401,11 +5405,19 @@
         <v>-340734.3603000001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J152" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5446,19 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5487,19 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J154" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5528,19 @@
         <v>-332331.7930000001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5569,19 @@
         <v>-346931.7930000001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J156" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5572,9 +5616,13 @@
         <v>27.2</v>
       </c>
       <c r="J157" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5609,11 +5657,11 @@
         <v>27.3</v>
       </c>
       <c r="J158" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5650,11 +5698,11 @@
         <v>27.3</v>
       </c>
       <c r="J159" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5691,7 +5739,7 @@
         <v>27.2</v>
       </c>
       <c r="J160" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5726,11 +5774,13 @@
         <v>-374125.8389000001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J161" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5769,7 +5819,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5804,11 +5854,13 @@
         <v>-379019.4427000001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J163" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5847,7 +5899,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5882,11 +5934,13 @@
         <v>-379029.4427000001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J165" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5921,11 +5975,13 @@
         <v>-378959.4427000001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J166" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5960,11 +6016,13 @@
         <v>-378959.4427000001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J167" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6003,7 +6061,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6042,7 +6100,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6081,7 +6139,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6116,11 +6174,13 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J171" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6155,11 +6215,13 @@
         <v>-378569.4427000001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J172" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6194,11 +6256,13 @@
         <v>-378509.4427000001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J173" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6233,11 +6297,13 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J174" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6272,11 +6338,13 @@
         <v>-378549.4427000001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J175" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6311,11 +6379,13 @@
         <v>-374961.9246000001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J176" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6350,11 +6420,13 @@
         <v>-374981.9246000001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J177" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6389,11 +6461,13 @@
         <v>-374981.9246000001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J178" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6428,11 +6502,13 @@
         <v>-374971.9246000001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J179" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6467,11 +6543,13 @@
         <v>-359671.9246000001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J180" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6510,7 +6588,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6549,7 +6627,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6584,11 +6662,13 @@
         <v>-359681.9246000001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J183" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6623,11 +6703,13 @@
         <v>-359591.9246000001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J184" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6666,7 +6748,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6705,7 +6787,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6744,7 +6826,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6783,7 +6865,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6822,7 +6904,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6861,7 +6943,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6900,7 +6982,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6939,7 +7021,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6974,11 +7056,13 @@
         <v>-307587.2013000001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J193" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7013,11 +7097,13 @@
         <v>-307687.2013000001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J194" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7052,11 +7138,13 @@
         <v>-307687.2013000001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J195" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7095,7 +7183,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7134,7 +7222,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7173,7 +7261,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7208,11 +7296,13 @@
         <v>-259344.2271000001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J199" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7251,7 +7341,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7290,7 +7380,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7329,7 +7419,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7364,11 +7454,13 @@
         <v>-372778.5736000001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J203" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7407,7 +7499,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>

--- a/BackTest/2019-11-02 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-02 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1753.7221</v>
       </c>
       <c r="G2" t="n">
-        <v>78581.1005999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>42800.6923</v>
       </c>
       <c r="G3" t="n">
-        <v>78581.1005999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>35870.9945</v>
       </c>
       <c r="G4" t="n">
-        <v>114452.0950999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>9630.9157</v>
       </c>
       <c r="G5" t="n">
-        <v>114452.0950999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>114352.0950999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>114362.0950999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>33746.2405</v>
       </c>
       <c r="G8" t="n">
-        <v>80615.8545999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>80625.8545999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>32570.0202</v>
       </c>
       <c r="G10" t="n">
-        <v>80625.8545999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>80635.8545999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>80625.8545999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>7900</v>
       </c>
       <c r="G13" t="n">
-        <v>88525.8545999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>32488.5952</v>
       </c>
       <c r="G14" t="n">
-        <v>56037.25939999991</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>56047.25939999991</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3069.913</v>
       </c>
       <c r="G16" t="n">
-        <v>56047.25939999991</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>14400</v>
       </c>
       <c r="G17" t="n">
-        <v>41647.25939999991</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1829.0228</v>
       </c>
       <c r="G18" t="n">
-        <v>41647.25939999991</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>7796.2745</v>
       </c>
       <c r="G19" t="n">
-        <v>33850.98489999991</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>68</v>
       </c>
       <c r="G20" t="n">
-        <v>33918.98489999991</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>40932</v>
       </c>
       <c r="G21" t="n">
-        <v>33918.98489999991</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1382</v>
       </c>
       <c r="G22" t="n">
-        <v>33918.98489999991</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1000</v>
       </c>
       <c r="G23" t="n">
-        <v>33918.98489999991</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>42948</v>
       </c>
       <c r="G24" t="n">
-        <v>-9029.015100000091</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>10100</v>
       </c>
       <c r="G25" t="n">
-        <v>1070.984899999909</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>29700</v>
       </c>
       <c r="G26" t="n">
-        <v>1070.984899999909</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3062.2382</v>
       </c>
       <c r="G27" t="n">
-        <v>-1991.253300000091</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>35671.342</v>
       </c>
       <c r="G28" t="n">
-        <v>-1991.253300000091</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>3000</v>
       </c>
       <c r="G29" t="n">
-        <v>1008.746699999909</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1583.138686131387</v>
       </c>
       <c r="G30" t="n">
-        <v>1008.746699999909</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>17990.7664</v>
       </c>
       <c r="G31" t="n">
-        <v>1008.746699999909</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>4363.6392</v>
       </c>
       <c r="G32" t="n">
-        <v>1008.746699999909</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>1048.746699999909</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>4794.5726</v>
       </c>
       <c r="G34" t="n">
-        <v>-3745.825900000092</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>-3705.825900000092</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>10807.4816</v>
       </c>
       <c r="G36" t="n">
-        <v>-3705.825900000092</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-3715.825900000092</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>-3725.825900000092</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>5501.529</v>
       </c>
       <c r="G39" t="n">
-        <v>-9227.354900000093</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1579.1809</v>
       </c>
       <c r="G40" t="n">
-        <v>-9227.354900000093</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1000</v>
       </c>
       <c r="G41" t="n">
-        <v>-9227.354900000093</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>35.8823</v>
       </c>
       <c r="G42" t="n">
-        <v>-9191.472600000094</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>964.1177</v>
       </c>
       <c r="G43" t="n">
-        <v>-9191.472600000094</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>9035.882299999999</v>
       </c>
       <c r="G44" t="n">
-        <v>-9191.472600000094</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>97832.65850000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-107024.1311000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>9786.326800000001</v>
       </c>
       <c r="G46" t="n">
-        <v>-116810.4579000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1871.9412</v>
       </c>
       <c r="G47" t="n">
-        <v>-114938.5167000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>19200</v>
       </c>
       <c r="G48" t="n">
-        <v>-134138.5167000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>-134128.5167000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>28927.7509</v>
       </c>
       <c r="G50" t="n">
-        <v>-163056.2676000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,19 @@
         <v>41839.5571</v>
       </c>
       <c r="G51" t="n">
-        <v>-163056.2676000001</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="I51" t="n">
+        <v>27</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1947,21 @@
         <v>22000</v>
       </c>
       <c r="G52" t="n">
-        <v>-163056.2676000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>27</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1983,21 @@
         <v>9034.5209</v>
       </c>
       <c r="G53" t="n">
-        <v>-172090.7885000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>27</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2019,21 @@
         <v>77813.2205</v>
       </c>
       <c r="G54" t="n">
-        <v>-172090.7885000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2055,21 @@
         <v>27823.9204</v>
       </c>
       <c r="G55" t="n">
-        <v>-172090.7885000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2091,21 @@
         <v>1116.9144</v>
       </c>
       <c r="G56" t="n">
-        <v>-172090.7885000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>27</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2127,21 @@
         <v>1808.2998</v>
       </c>
       <c r="G57" t="n">
-        <v>-172090.7885000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>27</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2163,21 @@
         <v>3833</v>
       </c>
       <c r="G58" t="n">
-        <v>-168257.7885000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>27</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2199,21 @@
         <v>7881.3308</v>
       </c>
       <c r="G59" t="n">
-        <v>-168257.7885000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>27</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2235,21 @@
         <v>7318.5127</v>
       </c>
       <c r="G60" t="n">
-        <v>-160939.2758000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>27</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2271,21 @@
         <v>63321.3636</v>
       </c>
       <c r="G61" t="n">
-        <v>-160939.2758000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>27</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2307,21 @@
         <v>3227.905</v>
       </c>
       <c r="G62" t="n">
-        <v>-164167.1808000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>27</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2343,21 @@
         <v>90</v>
       </c>
       <c r="G63" t="n">
-        <v>-164077.1808000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>27</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2379,21 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-164067.1808000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2415,21 @@
         <v>25713.3522</v>
       </c>
       <c r="G65" t="n">
-        <v>-189780.5330000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>27</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2451,21 @@
         <v>1759.1752</v>
       </c>
       <c r="G66" t="n">
-        <v>-189780.5330000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>27</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2487,21 @@
         <v>643.1135</v>
       </c>
       <c r="G67" t="n">
-        <v>-189780.5330000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2523,21 @@
         <v>43210.8471</v>
       </c>
       <c r="G68" t="n">
-        <v>-232991.3801000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>27</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2559,21 @@
         <v>24593.1517</v>
       </c>
       <c r="G69" t="n">
-        <v>-257584.5318000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>27</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2595,21 @@
         <v>1835.9674</v>
       </c>
       <c r="G70" t="n">
-        <v>-255748.5644000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2631,21 @@
         <v>15004.4183</v>
       </c>
       <c r="G71" t="n">
-        <v>-270752.9827000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>27</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2667,21 @@
         <v>380</v>
       </c>
       <c r="G72" t="n">
-        <v>-270372.9827000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>27</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2703,21 @@
         <v>18885.9131</v>
       </c>
       <c r="G73" t="n">
-        <v>-289258.8958000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2739,21 @@
         <v>17524</v>
       </c>
       <c r="G74" t="n">
-        <v>-289258.8958000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2775,23 @@
         <v>35100</v>
       </c>
       <c r="G75" t="n">
-        <v>-254158.8958000001</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>27</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2813,21 @@
         <v>7900</v>
       </c>
       <c r="G76" t="n">
-        <v>-246258.8958000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>27</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2849,21 @@
         <v>2900</v>
       </c>
       <c r="G77" t="n">
-        <v>-246258.8958000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>27</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2885,21 @@
         <v>87266</v>
       </c>
       <c r="G78" t="n">
-        <v>-158992.8958000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2921,21 @@
         <v>6600</v>
       </c>
       <c r="G79" t="n">
-        <v>-165592.8958000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>27</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2957,21 @@
         <v>8180</v>
       </c>
       <c r="G80" t="n">
-        <v>-157412.8958000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>27</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2993,21 @@
         <v>1898.1989</v>
       </c>
       <c r="G81" t="n">
-        <v>-159311.0947</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>27</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3029,21 @@
         <v>35908.672</v>
       </c>
       <c r="G82" t="n">
-        <v>-195219.7667</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3065,21 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>-195209.7667</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>27</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3101,21 @@
         <v>23952.6623</v>
       </c>
       <c r="G84" t="n">
-        <v>-195209.7667</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>27</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3137,21 @@
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>-195199.7667</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3173,21 @@
         <v>19373.6496</v>
       </c>
       <c r="G86" t="n">
-        <v>-195199.7667</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>27</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3209,21 @@
         <v>2000</v>
       </c>
       <c r="G87" t="n">
-        <v>-195199.7667</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>27</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3245,21 @@
         <v>6616.3776</v>
       </c>
       <c r="G88" t="n">
-        <v>-195199.7667</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3281,21 @@
         <v>19293.2642</v>
       </c>
       <c r="G89" t="n">
-        <v>-175906.5025</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3317,21 @@
         <v>21725.1739</v>
       </c>
       <c r="G90" t="n">
-        <v>-197631.6764</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>27</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3353,21 @@
         <v>6089.1131</v>
       </c>
       <c r="G91" t="n">
-        <v>-197631.6764</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>27</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3389,21 @@
         <v>10751</v>
       </c>
       <c r="G92" t="n">
-        <v>-208382.6764</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>27</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3425,21 @@
         <v>22600</v>
       </c>
       <c r="G93" t="n">
-        <v>-185782.6764</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>27</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3461,21 @@
         <v>35.7568</v>
       </c>
       <c r="G94" t="n">
-        <v>-185818.4332</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>27</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3497,21 @@
         <v>9588</v>
       </c>
       <c r="G95" t="n">
-        <v>-176230.4332</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>27</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3533,21 @@
         <v>83167</v>
       </c>
       <c r="G96" t="n">
-        <v>-176230.4332</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>27</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3569,21 @@
         <v>17800</v>
       </c>
       <c r="G97" t="n">
-        <v>-158430.4332</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>27</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3605,21 @@
         <v>5400</v>
       </c>
       <c r="G98" t="n">
-        <v>-158430.4332</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>27</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3641,21 @@
         <v>22.7009</v>
       </c>
       <c r="G99" t="n">
-        <v>-158430.4332</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>27</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3677,21 @@
         <v>500</v>
       </c>
       <c r="G100" t="n">
-        <v>-157930.4332</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3713,21 @@
         <v>25065.2158</v>
       </c>
       <c r="G101" t="n">
-        <v>-132865.2174</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>27</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3749,21 @@
         <v>588.7641</v>
       </c>
       <c r="G102" t="n">
-        <v>-133453.9815</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>27</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3785,21 @@
         <v>2059</v>
       </c>
       <c r="G103" t="n">
-        <v>-131394.9815</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>27</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3821,21 @@
         <v>63400</v>
       </c>
       <c r="G104" t="n">
-        <v>-131394.9815</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>27</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3857,21 @@
         <v>32659.75</v>
       </c>
       <c r="G105" t="n">
-        <v>-131394.9815</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>27</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3893,21 @@
         <v>1409.8214</v>
       </c>
       <c r="G106" t="n">
-        <v>-129985.1601</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>27</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3929,21 @@
         <v>74609.68610000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-129985.1601</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>27</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1.032037037037037</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3965,15 @@
         <v>1040</v>
       </c>
       <c r="G108" t="n">
-        <v>-131025.1601</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3995,15 @@
         <v>3800.1499</v>
       </c>
       <c r="G109" t="n">
-        <v>-134825.31</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4025,15 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>-134815.31</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4055,15 @@
         <v>6400</v>
       </c>
       <c r="G111" t="n">
-        <v>-141215.31</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4085,15 @@
         <v>8600</v>
       </c>
       <c r="G112" t="n">
-        <v>-141215.31</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4115,15 @@
         <v>225488.7964</v>
       </c>
       <c r="G113" t="n">
-        <v>-141215.31</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4145,15 @@
         <v>8691.758</v>
       </c>
       <c r="G114" t="n">
-        <v>-149907.068</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4175,15 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>-149897.068</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4205,15 @@
         <v>1406.2968</v>
       </c>
       <c r="G116" t="n">
-        <v>-151303.3648</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4235,15 @@
         <v>23823.5192</v>
       </c>
       <c r="G117" t="n">
-        <v>-127479.8456</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4265,15 @@
         <v>3865.2932</v>
       </c>
       <c r="G118" t="n">
-        <v>-131345.1388</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4295,15 @@
         <v>10661.3525</v>
       </c>
       <c r="G119" t="n">
-        <v>-131345.1388</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4325,15 @@
         <v>118485.5596</v>
       </c>
       <c r="G120" t="n">
-        <v>-249830.6984000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4355,15 @@
         <v>33571.3254</v>
       </c>
       <c r="G121" t="n">
-        <v>-283402.0238000001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4385,21 @@
         <v>17335.8794</v>
       </c>
       <c r="G122" t="n">
-        <v>-266066.1444000001</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4421,21 @@
         <v>2031.0653</v>
       </c>
       <c r="G123" t="n">
-        <v>-266066.1444000001</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4457,21 @@
         <v>27124.7375</v>
       </c>
       <c r="G124" t="n">
-        <v>-293190.8819000001</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4493,19 @@
         <v>14084.2124</v>
       </c>
       <c r="G125" t="n">
-        <v>-293190.8819000001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4527,21 @@
         <v>7000</v>
       </c>
       <c r="G126" t="n">
-        <v>-293190.8819000001</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4563,21 @@
         <v>12963.9999</v>
       </c>
       <c r="G127" t="n">
-        <v>-293190.8819000001</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4599,21 @@
         <v>11582.2102</v>
       </c>
       <c r="G128" t="n">
-        <v>-293190.8819000001</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4635,21 @@
         <v>9604.2912</v>
       </c>
       <c r="G129" t="n">
-        <v>-293190.8819000001</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4671,21 @@
         <v>42933.1122</v>
       </c>
       <c r="G130" t="n">
-        <v>-336123.9941000001</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4707,21 @@
         <v>2442.6187</v>
       </c>
       <c r="G131" t="n">
-        <v>-333681.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4743,21 @@
         <v>19497</v>
       </c>
       <c r="G132" t="n">
-        <v>-314184.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4779,21 @@
         <v>7287.1636</v>
       </c>
       <c r="G133" t="n">
-        <v>-314184.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4815,21 @@
         <v>3964.7432</v>
       </c>
       <c r="G134" t="n">
-        <v>-314184.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4851,21 @@
         <v>3376.8789</v>
       </c>
       <c r="G135" t="n">
-        <v>-314184.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4887,21 @@
         <v>46587.0745</v>
       </c>
       <c r="G136" t="n">
-        <v>-314184.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4923,21 @@
         <v>9375.844800000001</v>
       </c>
       <c r="G137" t="n">
-        <v>-314184.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4959,19 @@
         <v>9936.7816</v>
       </c>
       <c r="G138" t="n">
-        <v>-314184.3754000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4993,21 @@
         <v>5259.1263</v>
       </c>
       <c r="G139" t="n">
-        <v>-314184.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5029,19 @@
         <v>10035.0976</v>
       </c>
       <c r="G140" t="n">
-        <v>-314184.3754000001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5063,21 @@
         <v>78171.17110000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-314184.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5099,21 @@
         <v>16818.7826</v>
       </c>
       <c r="G142" t="n">
-        <v>-314184.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5135,21 @@
         <v>3778.4091</v>
       </c>
       <c r="G143" t="n">
-        <v>-314184.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5171,21 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>-314174.3754000001</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5207,19 @@
         <v>5929.1998</v>
       </c>
       <c r="G145" t="n">
-        <v>-320103.5752000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5241,19 @@
         <v>16904.4151</v>
       </c>
       <c r="G146" t="n">
-        <v>-337007.9903000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5275,21 @@
         <v>1301.1475</v>
       </c>
       <c r="G147" t="n">
-        <v>-337007.9903000001</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5311,19 @@
         <v>15718.7765</v>
       </c>
       <c r="G148" t="n">
-        <v>-337007.9903000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5345,19 @@
         <v>3755.7862</v>
       </c>
       <c r="G149" t="n">
-        <v>-337007.9903000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5379,19 @@
         <v>682.5018</v>
       </c>
       <c r="G150" t="n">
-        <v>-337007.9903000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,22 +5413,19 @@
         <v>8474</v>
       </c>
       <c r="G151" t="n">
-        <v>-337007.9903000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J151" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5402,26 +5447,19 @@
         <v>3726.37</v>
       </c>
       <c r="G152" t="n">
-        <v>-340734.3603000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J152" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5443,26 +5481,19 @@
         <v>8402.567300000001</v>
       </c>
       <c r="G153" t="n">
-        <v>-332331.7930000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J153" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5484,26 +5515,19 @@
         <v>13503.9765</v>
       </c>
       <c r="G154" t="n">
-        <v>-332331.7930000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J154" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5525,26 +5549,21 @@
         <v>1532.9071</v>
       </c>
       <c r="G155" t="n">
-        <v>-332331.7930000001</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J155" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5566,26 +5585,21 @@
         <v>14600</v>
       </c>
       <c r="G156" t="n">
-        <v>-346931.7930000001</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J156" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5607,26 +5621,21 @@
         <v>1659</v>
       </c>
       <c r="G157" t="n">
-        <v>-345272.7930000001</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J157" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5648,26 +5657,21 @@
         <v>5830.9069</v>
       </c>
       <c r="G158" t="n">
-        <v>-345272.7930000001</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J158" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5689,26 +5693,21 @@
         <v>37632.139</v>
       </c>
       <c r="G159" t="n">
-        <v>-382904.9320000001</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5730,26 +5729,21 @@
         <v>8769.0931</v>
       </c>
       <c r="G160" t="n">
-        <v>-374135.8389000001</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5771,26 +5765,21 @@
         <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>-374125.8389000001</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J161" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>27.4</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5812,24 +5801,19 @@
         <v>4903.6038</v>
       </c>
       <c r="G162" t="n">
-        <v>-379029.4427000001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5851,26 +5835,19 @@
         <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>-379019.4427000001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J163" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5892,24 +5869,19 @@
         <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>-379029.4427000001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5931,26 +5903,19 @@
         <v>15810</v>
       </c>
       <c r="G165" t="n">
-        <v>-379029.4427000001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5972,26 +5937,19 @@
         <v>70</v>
       </c>
       <c r="G166" t="n">
-        <v>-378959.4427000001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6013,26 +5971,21 @@
         <v>2188.4025</v>
       </c>
       <c r="G167" t="n">
-        <v>-378959.4427000001</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
         <v>27.6</v>
       </c>
-      <c r="J167" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6054,24 +6007,19 @@
         <v>400</v>
       </c>
       <c r="G168" t="n">
-        <v>-378559.4427000001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6093,24 +6041,19 @@
         <v>1323.7978</v>
       </c>
       <c r="G169" t="n">
-        <v>-378559.4427000001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6132,24 +6075,19 @@
         <v>20</v>
       </c>
       <c r="G170" t="n">
-        <v>-378579.4427000001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6171,26 +6109,19 @@
         <v>30</v>
       </c>
       <c r="G171" t="n">
-        <v>-378549.4427000001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J171" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6212,26 +6143,19 @@
         <v>20</v>
       </c>
       <c r="G172" t="n">
-        <v>-378569.4427000001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J172" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6253,26 +6177,19 @@
         <v>60</v>
       </c>
       <c r="G173" t="n">
-        <v>-378509.4427000001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J173" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6294,26 +6211,19 @@
         <v>40</v>
       </c>
       <c r="G174" t="n">
-        <v>-378549.4427000001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J174" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6335,26 +6245,19 @@
         <v>20</v>
       </c>
       <c r="G175" t="n">
-        <v>-378549.4427000001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J175" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6376,26 +6279,19 @@
         <v>3587.5181</v>
       </c>
       <c r="G176" t="n">
-        <v>-374961.9246000001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J176" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6417,26 +6313,19 @@
         <v>20</v>
       </c>
       <c r="G177" t="n">
-        <v>-374981.9246000001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J177" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6458,26 +6347,19 @@
         <v>39499.0397</v>
       </c>
       <c r="G178" t="n">
-        <v>-374981.9246000001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J178" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6499,26 +6381,19 @@
         <v>10</v>
       </c>
       <c r="G179" t="n">
-        <v>-374971.9246000001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J179" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6540,26 +6415,19 @@
         <v>15300</v>
       </c>
       <c r="G180" t="n">
-        <v>-359671.9246000001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J180" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6581,24 +6449,19 @@
         <v>20</v>
       </c>
       <c r="G181" t="n">
-        <v>-359651.9246000001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6620,24 +6483,19 @@
         <v>20</v>
       </c>
       <c r="G182" t="n">
-        <v>-359671.9246000001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6659,26 +6517,19 @@
         <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>-359681.9246000001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J183" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6700,26 +6551,19 @@
         <v>90</v>
       </c>
       <c r="G184" t="n">
-        <v>-359591.9246000001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J184" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6741,24 +6585,19 @@
         <v>10</v>
       </c>
       <c r="G185" t="n">
-        <v>-359601.9246000001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6780,24 +6619,19 @@
         <v>95002.1182</v>
       </c>
       <c r="G186" t="n">
-        <v>-264599.8064000001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6819,24 +6653,19 @@
         <v>20</v>
       </c>
       <c r="G187" t="n">
-        <v>-264619.8064000001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6858,24 +6687,19 @@
         <v>20</v>
       </c>
       <c r="G188" t="n">
-        <v>-264619.8064000001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6897,24 +6721,19 @@
         <v>1960.7926</v>
       </c>
       <c r="G189" t="n">
-        <v>-266580.5990000001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6936,24 +6755,19 @@
         <v>10</v>
       </c>
       <c r="G190" t="n">
-        <v>-266580.5990000001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6975,24 +6789,19 @@
         <v>41017.6023</v>
       </c>
       <c r="G191" t="n">
-        <v>-307598.2013000001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7014,24 +6823,19 @@
         <v>21</v>
       </c>
       <c r="G192" t="n">
-        <v>-307577.2013000001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7053,26 +6857,19 @@
         <v>10</v>
       </c>
       <c r="G193" t="n">
-        <v>-307587.2013000001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J193" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7094,26 +6891,19 @@
         <v>100</v>
       </c>
       <c r="G194" t="n">
-        <v>-307687.2013000001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J194" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7135,26 +6925,19 @@
         <v>100</v>
       </c>
       <c r="G195" t="n">
-        <v>-307687.2013000001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J195" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7176,24 +6959,19 @@
         <v>1796.607</v>
       </c>
       <c r="G196" t="n">
-        <v>-307687.2013000001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7215,24 +6993,19 @@
         <v>858.7329999999999</v>
       </c>
       <c r="G197" t="n">
-        <v>-307687.2013000001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7254,24 +7027,19 @@
         <v>70</v>
       </c>
       <c r="G198" t="n">
-        <v>-307687.2013000001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7293,26 +7061,19 @@
         <v>48342.9742</v>
       </c>
       <c r="G199" t="n">
-        <v>-259344.2271000001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J199" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7334,24 +7095,19 @@
         <v>23909.3176</v>
       </c>
       <c r="G200" t="n">
-        <v>-283253.5447000001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7373,24 +7129,19 @@
         <v>90397.4488</v>
       </c>
       <c r="G201" t="n">
-        <v>-373650.9935000001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7412,24 +7163,19 @@
         <v>882.4199</v>
       </c>
       <c r="G202" t="n">
-        <v>-372768.5736000001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7451,26 +7197,19 @@
         <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>-372778.5736000001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J203" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7492,24 +7231,19 @@
         <v>10</v>
       </c>
       <c r="G204" t="n">
-        <v>-372768.5736000001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
